--- a/design/chitiet/AccountManager.xlsx
+++ b/design/chitiet/AccountManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Màn hình (ID)</t>
   </si>
   <si>
-    <t xml:space="preserve">add product </t>
+    <t xml:space="preserve">account manager</t>
   </si>
   <si>
     <t xml:space="preserve">Màn hình (Tên)</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình đăng nhập</t>
+    <t xml:space="preserve">Màn hình quản lý tài khoản</t>
   </si>
   <si>
     <t xml:space="preserve">website bán đồng hồ </t>
@@ -261,9 +261,6 @@
     <t xml:space="preserve">Thái </t>
   </si>
   <si>
-    <t xml:space="preserve">Add product </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lịch sử chỉnh sửa</t>
   </si>
   <si>
@@ -291,13 +288,7 @@
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để thêm sản phảm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Người sử dụng nhập thôn tin sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sau khi nhấn thêm sản phảm, trường hợp phát sinh lỗi thì hiển thị thông báo lỗi, ngược lại di chuyển đến màn hình chính</t>
+    <t xml:space="preserve">- Dùng để quản lý tài khoản </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -313,12 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">5. Không bao gồm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">6. Sơ đồ</t>
@@ -348,19 +333,10 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user</t>
+    <t xml:space="preserve">Table  user</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
+    <t xml:space="preserve">O/I</t>
   </si>
   <si>
     <r>
@@ -405,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">AccountManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình quản lý tài khoản</t>
   </si>
   <si>
     <t xml:space="preserve">7. Giao diện màn hình</t>
@@ -503,9 +476,6 @@
     <t xml:space="preserve">2. chuyển trang cập nhật tài khoản </t>
   </si>
   <si>
-    <t xml:space="preserve">trường hợp phát sinh lỗi thì hiển thị nội dung lỗi, không thực hiện di chuyển màn hình</t>
-  </si>
-  <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
   </si>
   <si>
@@ -524,7 +494,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -610,6 +580,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1073,7 +1048,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1358,7 +1333,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1730,11 +1713,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1772,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1788,7 +1771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,16 +1785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1820,8 +1803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:off x="3531600" y="24456600"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1873,16 +1856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113040</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1890,9 +1873,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2582640" y="23725440"/>
-          <a:ext cx="1207800" cy="618120"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3789720" y="23725080"/>
+          <a:ext cx="230400" cy="737640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1937,9 +1920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1949,7 +1932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779200" cy="2607840"/>
+          <a:ext cx="2778480" cy="2607120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,9 +1964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1993,7 +1976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188000" cy="426600"/>
+          <a:ext cx="1187280" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2032,7 +2015,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình thêm sản phẩm</a:t>
+            <a:t>Màn hình quản lý tài khoản</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2051,9 +2034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2063,7 +2046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994680" cy="397800"/>
+          <a:ext cx="993960" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,9 +2208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2237,7 +2220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913320" cy="398160"/>
+          <a:ext cx="912600" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2293,9 +2276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2309,7 +2292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,134 +2302,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805560" y="23691240"/>
-          <a:ext cx="727920" cy="597600"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4008600" y="24215040"/>
-          <a:ext cx="955440" cy="645480"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="18360" anchor="ctr" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Product </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,19 +2318,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvPr id="10" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816440" cy="417240"/>
+          <a:ext cx="4815720" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,13 +2366,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>169200</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="11" name="Picture 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2527,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="397800" y="1076760"/>
-          <a:ext cx="8047440" cy="3825720"/>
+          <a:ext cx="8046720" cy="3825000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,14 +2404,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO125" activeCellId="0" sqref="AO125"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T127" activeCellId="0" sqref="T127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -4164,7 +4019,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -4247,7 +4102,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4306,7 +4161,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="B47" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30" t="s">
@@ -4317,7 +4172,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
@@ -4394,27 +4249,27 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK48" s="32"/>
       <c r="AL48" s="32"/>
       <c r="AM48" s="32"/>
       <c r="AN48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO48" s="32"/>
       <c r="AP48" s="32"/>
       <c r="AQ48" s="32"/>
       <c r="AR48" s="32"/>
       <c r="AS48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT48" s="32"/>
       <c r="AU48" s="32"/>
@@ -4428,14 +4283,14 @@
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -6082,7 +5937,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -6215,7 +6070,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
@@ -6298,7 +6153,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6352,7 +6207,7 @@
       <c r="A86" s="17"/>
       <c r="B86" s="59"/>
       <c r="C86" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -6404,9 +6259,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="C87" s="60"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6457,9 +6310,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
-        <v>40</v>
-      </c>
+      <c r="C88" s="60"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6560,7 +6411,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6614,7 +6465,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="63"/>
       <c r="C91" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
@@ -6716,7 +6567,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="61"/>
@@ -6770,7 +6621,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="63"/>
       <c r="C94" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="61"/>
@@ -6863,7 +6714,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="64"/>
@@ -6917,7 +6768,7 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="61"/>
@@ -7020,7 +6871,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="64"/>
@@ -7075,7 +6926,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" s="64"/>
       <c r="E100" s="19"/>
@@ -8263,15 +8114,15 @@
       <c r="X123" s="13"/>
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
-      <c r="AA123" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB123" s="14"/>
-      <c r="AC123" s="14"/>
-      <c r="AD123" s="14"/>
-      <c r="AE123" s="14"/>
-      <c r="AF123" s="14"/>
-      <c r="AG123" s="14"/>
+      <c r="AA123" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB123" s="71"/>
+      <c r="AC123" s="71"/>
+      <c r="AD123" s="71"/>
+      <c r="AE123" s="71"/>
+      <c r="AF123" s="71"/>
+      <c r="AG123" s="71"/>
       <c r="AH123" s="15" t="s">
         <v>13</v>
       </c>
@@ -8279,19 +8130,19 @@
       <c r="AJ123" s="15"/>
       <c r="AK123" s="15"/>
       <c r="AL123" s="15"/>
-      <c r="AM123" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN123" s="16"/>
-      <c r="AO123" s="16"/>
-      <c r="AP123" s="16"/>
-      <c r="AQ123" s="16"/>
-      <c r="AR123" s="16"/>
-      <c r="AS123" s="16"/>
-      <c r="AT123" s="16"/>
-      <c r="AU123" s="16"/>
-      <c r="AV123" s="16"/>
-      <c r="AW123" s="16"/>
+      <c r="AM123" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN123" s="72"/>
+      <c r="AO123" s="72"/>
+      <c r="AP123" s="72"/>
+      <c r="AQ123" s="72"/>
+      <c r="AR123" s="72"/>
+      <c r="AS123" s="72"/>
+      <c r="AT123" s="72"/>
+      <c r="AU123" s="72"/>
+      <c r="AV123" s="72"/>
+      <c r="AW123" s="72"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
@@ -8347,7 +8198,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9263,8 +9114,8 @@
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="B143" s="71" t="s">
-        <v>49</v>
+      <c r="B143" s="73" t="s">
+        <v>44</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9420,605 +9271,597 @@
       <c r="A146" s="17"/>
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
-      <c r="D146" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="E146" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="72"/>
-      <c r="M146" s="72"/>
-      <c r="N146" s="72"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="72"/>
-      <c r="Q146" s="72"/>
-      <c r="R146" s="72"/>
-      <c r="S146" s="72"/>
-      <c r="T146" s="72"/>
-      <c r="U146" s="72"/>
-      <c r="V146" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="W146" s="72"/>
-      <c r="X146" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y146" s="73"/>
-      <c r="Z146" s="73"/>
-      <c r="AA146" s="73"/>
-      <c r="AB146" s="73"/>
-      <c r="AC146" s="73"/>
-      <c r="AD146" s="73"/>
-      <c r="AE146" s="73"/>
-      <c r="AF146" s="73"/>
-      <c r="AG146" s="73"/>
-      <c r="AH146" s="73"/>
-      <c r="AI146" s="73"/>
-      <c r="AJ146" s="73"/>
-      <c r="AK146" s="73"/>
-      <c r="AL146" s="73"/>
-      <c r="AM146" s="73"/>
-      <c r="AN146" s="73"/>
-      <c r="AO146" s="73"/>
-      <c r="AP146" s="73"/>
-      <c r="AQ146" s="73"/>
-      <c r="AR146" s="73"/>
-      <c r="AS146" s="73"/>
-      <c r="AT146" s="73"/>
-      <c r="AU146" s="73"/>
-      <c r="AV146" s="73"/>
+      <c r="D146" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="74"/>
+      <c r="L146" s="74"/>
+      <c r="M146" s="74"/>
+      <c r="N146" s="74"/>
+      <c r="O146" s="74"/>
+      <c r="P146" s="74"/>
+      <c r="Q146" s="74"/>
+      <c r="R146" s="74"/>
+      <c r="S146" s="74"/>
+      <c r="T146" s="74"/>
+      <c r="U146" s="74"/>
+      <c r="V146" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="W146" s="74"/>
+      <c r="X146" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y146" s="75"/>
+      <c r="Z146" s="75"/>
+      <c r="AA146" s="75"/>
+      <c r="AB146" s="75"/>
+      <c r="AC146" s="75"/>
+      <c r="AD146" s="75"/>
+      <c r="AE146" s="75"/>
+      <c r="AF146" s="75"/>
+      <c r="AG146" s="75"/>
+      <c r="AH146" s="75"/>
+      <c r="AI146" s="75"/>
+      <c r="AJ146" s="75"/>
+      <c r="AK146" s="75"/>
+      <c r="AL146" s="75"/>
+      <c r="AM146" s="75"/>
+      <c r="AN146" s="75"/>
+      <c r="AO146" s="75"/>
+      <c r="AP146" s="75"/>
+      <c r="AQ146" s="75"/>
+      <c r="AR146" s="75"/>
+      <c r="AS146" s="75"/>
+      <c r="AT146" s="75"/>
+      <c r="AU146" s="75"/>
+      <c r="AV146" s="75"/>
       <c r="AW146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
       <c r="B147" s="59"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="74" t="n">
+      <c r="D147" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="F147" s="74"/>
-      <c r="G147" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="76"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="M147" s="76"/>
-      <c r="N147" s="76"/>
-      <c r="O147" s="76"/>
-      <c r="P147" s="76"/>
-      <c r="Q147" s="76"/>
-      <c r="R147" s="76"/>
-      <c r="S147" s="76"/>
-      <c r="T147" s="76"/>
-      <c r="U147" s="79"/>
-      <c r="V147" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="W147" s="74"/>
-      <c r="X147" s="75"/>
-      <c r="Y147" s="76"/>
-      <c r="Z147" s="76"/>
-      <c r="AA147" s="76"/>
-      <c r="AB147" s="76"/>
-      <c r="AC147" s="76"/>
-      <c r="AD147" s="76"/>
-      <c r="AE147" s="76"/>
-      <c r="AF147" s="76"/>
-      <c r="AG147" s="76"/>
-      <c r="AH147" s="76"/>
-      <c r="AI147" s="76"/>
-      <c r="AJ147" s="76"/>
-      <c r="AK147" s="76"/>
-      <c r="AL147" s="76"/>
-      <c r="AM147" s="76"/>
-      <c r="AN147" s="76"/>
-      <c r="AO147" s="76"/>
-      <c r="AP147" s="76"/>
-      <c r="AQ147" s="76"/>
-      <c r="AR147" s="76"/>
-      <c r="AS147" s="76"/>
-      <c r="AT147" s="76"/>
-      <c r="AU147" s="76"/>
-      <c r="AV147" s="79"/>
+      <c r="E147" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="76"/>
+      <c r="G147" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="H147" s="78"/>
+      <c r="I147" s="78"/>
+      <c r="J147" s="78"/>
+      <c r="K147" s="79"/>
+      <c r="L147" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M147" s="78"/>
+      <c r="N147" s="78"/>
+      <c r="O147" s="78"/>
+      <c r="P147" s="78"/>
+      <c r="Q147" s="78"/>
+      <c r="R147" s="78"/>
+      <c r="S147" s="78"/>
+      <c r="T147" s="78"/>
+      <c r="U147" s="81"/>
+      <c r="V147" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="W147" s="76"/>
+      <c r="X147" s="77"/>
+      <c r="Y147" s="78"/>
+      <c r="Z147" s="78"/>
+      <c r="AA147" s="78"/>
+      <c r="AB147" s="78"/>
+      <c r="AC147" s="78"/>
+      <c r="AD147" s="78"/>
+      <c r="AE147" s="78"/>
+      <c r="AF147" s="78"/>
+      <c r="AG147" s="78"/>
+      <c r="AH147" s="78"/>
+      <c r="AI147" s="78"/>
+      <c r="AJ147" s="78"/>
+      <c r="AK147" s="78"/>
+      <c r="AL147" s="78"/>
+      <c r="AM147" s="78"/>
+      <c r="AN147" s="78"/>
+      <c r="AO147" s="78"/>
+      <c r="AP147" s="78"/>
+      <c r="AQ147" s="78"/>
+      <c r="AR147" s="78"/>
+      <c r="AS147" s="78"/>
+      <c r="AT147" s="78"/>
+      <c r="AU147" s="78"/>
+      <c r="AV147" s="81"/>
       <c r="AW147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="59"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="80" t="n">
+      <c r="D148" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="82"/>
-      <c r="G148" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="H148" s="84"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="84"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M148" s="84"/>
-      <c r="N148" s="84"/>
-      <c r="O148" s="84"/>
-      <c r="P148" s="84"/>
-      <c r="Q148" s="84"/>
-      <c r="R148" s="84"/>
-      <c r="S148" s="84"/>
-      <c r="T148" s="84"/>
-      <c r="U148" s="87"/>
-      <c r="V148" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="W148" s="82"/>
-      <c r="X148" s="83"/>
-      <c r="Y148" s="84"/>
-      <c r="Z148" s="84"/>
-      <c r="AA148" s="84"/>
-      <c r="AB148" s="84"/>
-      <c r="AC148" s="84"/>
-      <c r="AD148" s="84"/>
-      <c r="AE148" s="84"/>
-      <c r="AF148" s="84"/>
-      <c r="AG148" s="84"/>
-      <c r="AH148" s="84"/>
-      <c r="AI148" s="84"/>
-      <c r="AJ148" s="84"/>
-      <c r="AK148" s="84"/>
-      <c r="AL148" s="84"/>
-      <c r="AM148" s="84"/>
-      <c r="AN148" s="84"/>
-      <c r="AO148" s="84"/>
-      <c r="AP148" s="84"/>
-      <c r="AQ148" s="84"/>
-      <c r="AR148" s="84"/>
-      <c r="AS148" s="84"/>
-      <c r="AT148" s="84"/>
-      <c r="AU148" s="84"/>
-      <c r="AV148" s="87"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="86"/>
+      <c r="I148" s="86"/>
+      <c r="J148" s="86"/>
+      <c r="K148" s="87"/>
+      <c r="L148" s="88"/>
+      <c r="M148" s="86"/>
+      <c r="N148" s="86"/>
+      <c r="O148" s="86"/>
+      <c r="P148" s="86"/>
+      <c r="Q148" s="86"/>
+      <c r="R148" s="86"/>
+      <c r="S148" s="86"/>
+      <c r="T148" s="86"/>
+      <c r="U148" s="89"/>
+      <c r="V148" s="83"/>
+      <c r="W148" s="84"/>
+      <c r="X148" s="85"/>
+      <c r="Y148" s="86"/>
+      <c r="Z148" s="86"/>
+      <c r="AA148" s="86"/>
+      <c r="AB148" s="86"/>
+      <c r="AC148" s="86"/>
+      <c r="AD148" s="86"/>
+      <c r="AE148" s="86"/>
+      <c r="AF148" s="86"/>
+      <c r="AG148" s="86"/>
+      <c r="AH148" s="86"/>
+      <c r="AI148" s="86"/>
+      <c r="AJ148" s="86"/>
+      <c r="AK148" s="86"/>
+      <c r="AL148" s="86"/>
+      <c r="AM148" s="86"/>
+      <c r="AN148" s="86"/>
+      <c r="AO148" s="86"/>
+      <c r="AP148" s="86"/>
+      <c r="AQ148" s="86"/>
+      <c r="AR148" s="86"/>
+      <c r="AS148" s="86"/>
+      <c r="AT148" s="86"/>
+      <c r="AU148" s="86"/>
+      <c r="AV148" s="89"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="59"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="80" t="n">
+      <c r="D149" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="81"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="84"/>
-      <c r="N149" s="84"/>
-      <c r="O149" s="84"/>
-      <c r="P149" s="84"/>
-      <c r="Q149" s="84"/>
-      <c r="R149" s="84"/>
-      <c r="S149" s="84"/>
-      <c r="T149" s="84"/>
-      <c r="U149" s="87"/>
-      <c r="V149" s="81"/>
-      <c r="W149" s="82"/>
-      <c r="X149" s="83"/>
-      <c r="Y149" s="84"/>
-      <c r="Z149" s="84"/>
-      <c r="AA149" s="84"/>
-      <c r="AB149" s="84"/>
-      <c r="AC149" s="84"/>
-      <c r="AD149" s="84"/>
-      <c r="AE149" s="84"/>
-      <c r="AF149" s="84"/>
-      <c r="AG149" s="84"/>
-      <c r="AH149" s="84"/>
-      <c r="AI149" s="84"/>
-      <c r="AJ149" s="84"/>
-      <c r="AK149" s="84"/>
-      <c r="AL149" s="84"/>
-      <c r="AM149" s="84"/>
-      <c r="AN149" s="84"/>
-      <c r="AO149" s="84"/>
-      <c r="AP149" s="84"/>
-      <c r="AQ149" s="84"/>
-      <c r="AR149" s="84"/>
-      <c r="AS149" s="84"/>
-      <c r="AT149" s="84"/>
-      <c r="AU149" s="84"/>
-      <c r="AV149" s="87"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="86"/>
+      <c r="I149" s="86"/>
+      <c r="J149" s="86"/>
+      <c r="K149" s="87"/>
+      <c r="L149" s="88"/>
+      <c r="M149" s="86"/>
+      <c r="N149" s="86"/>
+      <c r="O149" s="86"/>
+      <c r="P149" s="86"/>
+      <c r="Q149" s="86"/>
+      <c r="R149" s="86"/>
+      <c r="S149" s="86"/>
+      <c r="T149" s="86"/>
+      <c r="U149" s="89"/>
+      <c r="V149" s="83"/>
+      <c r="W149" s="84"/>
+      <c r="X149" s="85"/>
+      <c r="Y149" s="86"/>
+      <c r="Z149" s="86"/>
+      <c r="AA149" s="86"/>
+      <c r="AB149" s="86"/>
+      <c r="AC149" s="86"/>
+      <c r="AD149" s="86"/>
+      <c r="AE149" s="86"/>
+      <c r="AF149" s="86"/>
+      <c r="AG149" s="86"/>
+      <c r="AH149" s="86"/>
+      <c r="AI149" s="86"/>
+      <c r="AJ149" s="86"/>
+      <c r="AK149" s="86"/>
+      <c r="AL149" s="86"/>
+      <c r="AM149" s="86"/>
+      <c r="AN149" s="86"/>
+      <c r="AO149" s="86"/>
+      <c r="AP149" s="86"/>
+      <c r="AQ149" s="86"/>
+      <c r="AR149" s="86"/>
+      <c r="AS149" s="86"/>
+      <c r="AT149" s="86"/>
+      <c r="AU149" s="86"/>
+      <c r="AV149" s="89"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="B150" s="59"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="80" t="n">
+      <c r="D150" s="82" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="81"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="84"/>
-      <c r="N150" s="84"/>
-      <c r="O150" s="84"/>
-      <c r="P150" s="84"/>
-      <c r="Q150" s="84"/>
-      <c r="R150" s="84"/>
-      <c r="S150" s="84"/>
-      <c r="T150" s="84"/>
-      <c r="U150" s="87"/>
-      <c r="V150" s="81"/>
-      <c r="W150" s="82"/>
-      <c r="X150" s="83"/>
-      <c r="Y150" s="84"/>
-      <c r="Z150" s="84"/>
-      <c r="AA150" s="84"/>
-      <c r="AB150" s="84"/>
-      <c r="AC150" s="84"/>
-      <c r="AD150" s="84"/>
-      <c r="AE150" s="84"/>
-      <c r="AF150" s="84"/>
-      <c r="AG150" s="84"/>
-      <c r="AH150" s="84"/>
-      <c r="AI150" s="84"/>
-      <c r="AJ150" s="84"/>
-      <c r="AK150" s="84"/>
-      <c r="AL150" s="84"/>
-      <c r="AM150" s="84"/>
-      <c r="AN150" s="84"/>
-      <c r="AO150" s="84"/>
-      <c r="AP150" s="84"/>
-      <c r="AQ150" s="84"/>
-      <c r="AR150" s="84"/>
-      <c r="AS150" s="84"/>
-      <c r="AT150" s="84"/>
-      <c r="AU150" s="84"/>
-      <c r="AV150" s="87"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="86"/>
+      <c r="I150" s="86"/>
+      <c r="J150" s="86"/>
+      <c r="K150" s="87"/>
+      <c r="L150" s="88"/>
+      <c r="M150" s="86"/>
+      <c r="N150" s="86"/>
+      <c r="O150" s="86"/>
+      <c r="P150" s="86"/>
+      <c r="Q150" s="86"/>
+      <c r="R150" s="86"/>
+      <c r="S150" s="86"/>
+      <c r="T150" s="86"/>
+      <c r="U150" s="89"/>
+      <c r="V150" s="83"/>
+      <c r="W150" s="84"/>
+      <c r="X150" s="85"/>
+      <c r="Y150" s="86"/>
+      <c r="Z150" s="86"/>
+      <c r="AA150" s="86"/>
+      <c r="AB150" s="86"/>
+      <c r="AC150" s="86"/>
+      <c r="AD150" s="86"/>
+      <c r="AE150" s="86"/>
+      <c r="AF150" s="86"/>
+      <c r="AG150" s="86"/>
+      <c r="AH150" s="86"/>
+      <c r="AI150" s="86"/>
+      <c r="AJ150" s="86"/>
+      <c r="AK150" s="86"/>
+      <c r="AL150" s="86"/>
+      <c r="AM150" s="86"/>
+      <c r="AN150" s="86"/>
+      <c r="AO150" s="86"/>
+      <c r="AP150" s="86"/>
+      <c r="AQ150" s="86"/>
+      <c r="AR150" s="86"/>
+      <c r="AS150" s="86"/>
+      <c r="AT150" s="86"/>
+      <c r="AU150" s="86"/>
+      <c r="AV150" s="89"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="B151" s="59"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="80" t="n">
+      <c r="D151" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="84"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="84"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="84"/>
-      <c r="N151" s="84"/>
-      <c r="O151" s="84"/>
-      <c r="P151" s="84"/>
-      <c r="Q151" s="84"/>
-      <c r="R151" s="84"/>
-      <c r="S151" s="84"/>
-      <c r="T151" s="84"/>
-      <c r="U151" s="87"/>
-      <c r="V151" s="81"/>
-      <c r="W151" s="82"/>
-      <c r="X151" s="88"/>
-      <c r="Y151" s="89"/>
-      <c r="Z151" s="89"/>
-      <c r="AA151" s="89"/>
-      <c r="AB151" s="89"/>
-      <c r="AC151" s="89"/>
-      <c r="AD151" s="89"/>
-      <c r="AE151" s="89"/>
-      <c r="AF151" s="89"/>
-      <c r="AG151" s="89"/>
-      <c r="AH151" s="89"/>
-      <c r="AI151" s="89"/>
-      <c r="AJ151" s="89"/>
-      <c r="AK151" s="89"/>
-      <c r="AL151" s="89"/>
-      <c r="AM151" s="89"/>
-      <c r="AN151" s="89"/>
-      <c r="AO151" s="89"/>
-      <c r="AP151" s="89"/>
-      <c r="AQ151" s="89"/>
-      <c r="AR151" s="89"/>
-      <c r="AS151" s="89"/>
-      <c r="AT151" s="89"/>
-      <c r="AU151" s="89"/>
-      <c r="AV151" s="90"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="86"/>
+      <c r="I151" s="86"/>
+      <c r="J151" s="86"/>
+      <c r="K151" s="87"/>
+      <c r="L151" s="88"/>
+      <c r="M151" s="86"/>
+      <c r="N151" s="86"/>
+      <c r="O151" s="86"/>
+      <c r="P151" s="86"/>
+      <c r="Q151" s="86"/>
+      <c r="R151" s="86"/>
+      <c r="S151" s="86"/>
+      <c r="T151" s="86"/>
+      <c r="U151" s="89"/>
+      <c r="V151" s="83"/>
+      <c r="W151" s="84"/>
+      <c r="X151" s="90"/>
+      <c r="Y151" s="91"/>
+      <c r="Z151" s="91"/>
+      <c r="AA151" s="91"/>
+      <c r="AB151" s="91"/>
+      <c r="AC151" s="91"/>
+      <c r="AD151" s="91"/>
+      <c r="AE151" s="91"/>
+      <c r="AF151" s="91"/>
+      <c r="AG151" s="91"/>
+      <c r="AH151" s="91"/>
+      <c r="AI151" s="91"/>
+      <c r="AJ151" s="91"/>
+      <c r="AK151" s="91"/>
+      <c r="AL151" s="91"/>
+      <c r="AM151" s="91"/>
+      <c r="AN151" s="91"/>
+      <c r="AO151" s="91"/>
+      <c r="AP151" s="91"/>
+      <c r="AQ151" s="91"/>
+      <c r="AR151" s="91"/>
+      <c r="AS151" s="91"/>
+      <c r="AT151" s="91"/>
+      <c r="AU151" s="91"/>
+      <c r="AV151" s="92"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="B152" s="59"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="80" t="n">
+      <c r="D152" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="E152" s="91"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="89"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="93"/>
-      <c r="L152" s="94"/>
-      <c r="M152" s="89"/>
-      <c r="N152" s="89"/>
-      <c r="O152" s="89"/>
-      <c r="P152" s="89"/>
-      <c r="Q152" s="89"/>
-      <c r="R152" s="89"/>
-      <c r="S152" s="89"/>
-      <c r="T152" s="89"/>
-      <c r="U152" s="90"/>
-      <c r="V152" s="91"/>
-      <c r="W152" s="92"/>
-      <c r="X152" s="88"/>
-      <c r="Y152" s="89"/>
-      <c r="Z152" s="89"/>
-      <c r="AA152" s="89"/>
-      <c r="AB152" s="89"/>
-      <c r="AC152" s="89"/>
-      <c r="AD152" s="89"/>
-      <c r="AE152" s="89"/>
-      <c r="AF152" s="89"/>
-      <c r="AG152" s="89"/>
-      <c r="AH152" s="89"/>
-      <c r="AI152" s="89"/>
-      <c r="AJ152" s="89"/>
-      <c r="AK152" s="89"/>
-      <c r="AL152" s="89"/>
-      <c r="AM152" s="89"/>
-      <c r="AN152" s="89"/>
-      <c r="AO152" s="89"/>
-      <c r="AP152" s="89"/>
-      <c r="AQ152" s="89"/>
-      <c r="AR152" s="89"/>
-      <c r="AS152" s="89"/>
-      <c r="AT152" s="89"/>
-      <c r="AU152" s="89"/>
-      <c r="AV152" s="90"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="94"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="91"/>
+      <c r="I152" s="91"/>
+      <c r="J152" s="91"/>
+      <c r="K152" s="95"/>
+      <c r="L152" s="96"/>
+      <c r="M152" s="91"/>
+      <c r="N152" s="91"/>
+      <c r="O152" s="91"/>
+      <c r="P152" s="91"/>
+      <c r="Q152" s="91"/>
+      <c r="R152" s="91"/>
+      <c r="S152" s="91"/>
+      <c r="T152" s="91"/>
+      <c r="U152" s="92"/>
+      <c r="V152" s="93"/>
+      <c r="W152" s="94"/>
+      <c r="X152" s="90"/>
+      <c r="Y152" s="91"/>
+      <c r="Z152" s="91"/>
+      <c r="AA152" s="91"/>
+      <c r="AB152" s="91"/>
+      <c r="AC152" s="91"/>
+      <c r="AD152" s="91"/>
+      <c r="AE152" s="91"/>
+      <c r="AF152" s="91"/>
+      <c r="AG152" s="91"/>
+      <c r="AH152" s="91"/>
+      <c r="AI152" s="91"/>
+      <c r="AJ152" s="91"/>
+      <c r="AK152" s="91"/>
+      <c r="AL152" s="91"/>
+      <c r="AM152" s="91"/>
+      <c r="AN152" s="91"/>
+      <c r="AO152" s="91"/>
+      <c r="AP152" s="91"/>
+      <c r="AQ152" s="91"/>
+      <c r="AR152" s="91"/>
+      <c r="AS152" s="91"/>
+      <c r="AT152" s="91"/>
+      <c r="AU152" s="91"/>
+      <c r="AV152" s="92"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="B153" s="59"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="80" t="n">
+      <c r="D153" s="82" t="n">
         <v>8</v>
       </c>
-      <c r="E153" s="91"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="89"/>
-      <c r="I153" s="89"/>
-      <c r="J153" s="89"/>
-      <c r="K153" s="93"/>
-      <c r="L153" s="94"/>
-      <c r="M153" s="89"/>
-      <c r="N153" s="89"/>
-      <c r="O153" s="89"/>
-      <c r="P153" s="89"/>
-      <c r="Q153" s="89"/>
-      <c r="R153" s="89"/>
-      <c r="S153" s="89"/>
-      <c r="T153" s="89"/>
-      <c r="U153" s="90"/>
-      <c r="V153" s="91"/>
-      <c r="W153" s="92"/>
-      <c r="X153" s="88"/>
-      <c r="Y153" s="89"/>
-      <c r="Z153" s="89"/>
-      <c r="AA153" s="89"/>
-      <c r="AB153" s="89"/>
-      <c r="AC153" s="89"/>
-      <c r="AD153" s="89"/>
-      <c r="AE153" s="89"/>
-      <c r="AF153" s="89"/>
-      <c r="AG153" s="89"/>
-      <c r="AH153" s="89"/>
-      <c r="AI153" s="89"/>
-      <c r="AJ153" s="89"/>
-      <c r="AK153" s="89"/>
-      <c r="AL153" s="89"/>
-      <c r="AM153" s="89"/>
-      <c r="AN153" s="89"/>
-      <c r="AO153" s="89"/>
-      <c r="AP153" s="89"/>
-      <c r="AQ153" s="89"/>
-      <c r="AR153" s="89"/>
-      <c r="AS153" s="89"/>
-      <c r="AT153" s="89"/>
-      <c r="AU153" s="89"/>
-      <c r="AV153" s="90"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="94"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="91"/>
+      <c r="I153" s="91"/>
+      <c r="J153" s="91"/>
+      <c r="K153" s="95"/>
+      <c r="L153" s="96"/>
+      <c r="M153" s="91"/>
+      <c r="N153" s="91"/>
+      <c r="O153" s="91"/>
+      <c r="P153" s="91"/>
+      <c r="Q153" s="91"/>
+      <c r="R153" s="91"/>
+      <c r="S153" s="91"/>
+      <c r="T153" s="91"/>
+      <c r="U153" s="92"/>
+      <c r="V153" s="93"/>
+      <c r="W153" s="94"/>
+      <c r="X153" s="90"/>
+      <c r="Y153" s="91"/>
+      <c r="Z153" s="91"/>
+      <c r="AA153" s="91"/>
+      <c r="AB153" s="91"/>
+      <c r="AC153" s="91"/>
+      <c r="AD153" s="91"/>
+      <c r="AE153" s="91"/>
+      <c r="AF153" s="91"/>
+      <c r="AG153" s="91"/>
+      <c r="AH153" s="91"/>
+      <c r="AI153" s="91"/>
+      <c r="AJ153" s="91"/>
+      <c r="AK153" s="91"/>
+      <c r="AL153" s="91"/>
+      <c r="AM153" s="91"/>
+      <c r="AN153" s="91"/>
+      <c r="AO153" s="91"/>
+      <c r="AP153" s="91"/>
+      <c r="AQ153" s="91"/>
+      <c r="AR153" s="91"/>
+      <c r="AS153" s="91"/>
+      <c r="AT153" s="91"/>
+      <c r="AU153" s="91"/>
+      <c r="AV153" s="92"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="B154" s="59"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="80" t="n">
+      <c r="D154" s="82" t="n">
         <v>9</v>
       </c>
-      <c r="E154" s="91"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="88"/>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-      <c r="J154" s="89"/>
-      <c r="K154" s="93"/>
-      <c r="L154" s="94"/>
-      <c r="M154" s="89"/>
-      <c r="N154" s="89"/>
-      <c r="O154" s="89"/>
-      <c r="P154" s="89"/>
-      <c r="Q154" s="89"/>
-      <c r="R154" s="89"/>
-      <c r="S154" s="89"/>
-      <c r="T154" s="89"/>
-      <c r="U154" s="90"/>
-      <c r="V154" s="91"/>
-      <c r="W154" s="92"/>
-      <c r="X154" s="88"/>
-      <c r="Y154" s="89"/>
-      <c r="Z154" s="89"/>
-      <c r="AA154" s="89"/>
-      <c r="AB154" s="89"/>
-      <c r="AC154" s="89"/>
-      <c r="AD154" s="89"/>
-      <c r="AE154" s="89"/>
-      <c r="AF154" s="89"/>
-      <c r="AG154" s="89"/>
-      <c r="AH154" s="89"/>
-      <c r="AI154" s="89"/>
-      <c r="AJ154" s="89"/>
-      <c r="AK154" s="89"/>
-      <c r="AL154" s="89"/>
-      <c r="AM154" s="89"/>
-      <c r="AN154" s="89"/>
-      <c r="AO154" s="89"/>
-      <c r="AP154" s="89"/>
-      <c r="AQ154" s="89"/>
-      <c r="AR154" s="89"/>
-      <c r="AS154" s="89"/>
-      <c r="AT154" s="89"/>
-      <c r="AU154" s="89"/>
-      <c r="AV154" s="90"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="94"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="91"/>
+      <c r="J154" s="91"/>
+      <c r="K154" s="95"/>
+      <c r="L154" s="96"/>
+      <c r="M154" s="91"/>
+      <c r="N154" s="91"/>
+      <c r="O154" s="91"/>
+      <c r="P154" s="91"/>
+      <c r="Q154" s="91"/>
+      <c r="R154" s="91"/>
+      <c r="S154" s="91"/>
+      <c r="T154" s="91"/>
+      <c r="U154" s="92"/>
+      <c r="V154" s="93"/>
+      <c r="W154" s="94"/>
+      <c r="X154" s="90"/>
+      <c r="Y154" s="91"/>
+      <c r="Z154" s="91"/>
+      <c r="AA154" s="91"/>
+      <c r="AB154" s="91"/>
+      <c r="AC154" s="91"/>
+      <c r="AD154" s="91"/>
+      <c r="AE154" s="91"/>
+      <c r="AF154" s="91"/>
+      <c r="AG154" s="91"/>
+      <c r="AH154" s="91"/>
+      <c r="AI154" s="91"/>
+      <c r="AJ154" s="91"/>
+      <c r="AK154" s="91"/>
+      <c r="AL154" s="91"/>
+      <c r="AM154" s="91"/>
+      <c r="AN154" s="91"/>
+      <c r="AO154" s="91"/>
+      <c r="AP154" s="91"/>
+      <c r="AQ154" s="91"/>
+      <c r="AR154" s="91"/>
+      <c r="AS154" s="91"/>
+      <c r="AT154" s="91"/>
+      <c r="AU154" s="91"/>
+      <c r="AV154" s="92"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="B155" s="59"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="95" t="n">
+      <c r="D155" s="97" t="n">
         <v>10</v>
       </c>
-      <c r="E155" s="91"/>
-      <c r="F155" s="92"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="89"/>
-      <c r="I155" s="89"/>
-      <c r="J155" s="89"/>
-      <c r="K155" s="93"/>
-      <c r="L155" s="94"/>
-      <c r="M155" s="89"/>
-      <c r="N155" s="89"/>
-      <c r="O155" s="89"/>
-      <c r="P155" s="89"/>
-      <c r="Q155" s="89"/>
-      <c r="R155" s="89"/>
-      <c r="S155" s="89"/>
-      <c r="T155" s="89"/>
-      <c r="U155" s="90"/>
-      <c r="V155" s="91"/>
-      <c r="W155" s="92"/>
-      <c r="X155" s="88"/>
-      <c r="Y155" s="89"/>
-      <c r="Z155" s="89"/>
-      <c r="AA155" s="89"/>
-      <c r="AB155" s="89"/>
-      <c r="AC155" s="89"/>
-      <c r="AD155" s="89"/>
-      <c r="AE155" s="89"/>
-      <c r="AF155" s="89"/>
-      <c r="AG155" s="89"/>
-      <c r="AH155" s="89"/>
-      <c r="AI155" s="89"/>
-      <c r="AJ155" s="89"/>
-      <c r="AK155" s="89"/>
-      <c r="AL155" s="89"/>
-      <c r="AM155" s="89"/>
-      <c r="AN155" s="89"/>
-      <c r="AO155" s="89"/>
-      <c r="AP155" s="89"/>
-      <c r="AQ155" s="89"/>
-      <c r="AR155" s="89"/>
-      <c r="AS155" s="89"/>
-      <c r="AT155" s="89"/>
-      <c r="AU155" s="89"/>
-      <c r="AV155" s="90"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="90"/>
+      <c r="H155" s="91"/>
+      <c r="I155" s="91"/>
+      <c r="J155" s="91"/>
+      <c r="K155" s="95"/>
+      <c r="L155" s="96"/>
+      <c r="M155" s="91"/>
+      <c r="N155" s="91"/>
+      <c r="O155" s="91"/>
+      <c r="P155" s="91"/>
+      <c r="Q155" s="91"/>
+      <c r="R155" s="91"/>
+      <c r="S155" s="91"/>
+      <c r="T155" s="91"/>
+      <c r="U155" s="92"/>
+      <c r="V155" s="93"/>
+      <c r="W155" s="94"/>
+      <c r="X155" s="90"/>
+      <c r="Y155" s="91"/>
+      <c r="Z155" s="91"/>
+      <c r="AA155" s="91"/>
+      <c r="AB155" s="91"/>
+      <c r="AC155" s="91"/>
+      <c r="AD155" s="91"/>
+      <c r="AE155" s="91"/>
+      <c r="AF155" s="91"/>
+      <c r="AG155" s="91"/>
+      <c r="AH155" s="91"/>
+      <c r="AI155" s="91"/>
+      <c r="AJ155" s="91"/>
+      <c r="AK155" s="91"/>
+      <c r="AL155" s="91"/>
+      <c r="AM155" s="91"/>
+      <c r="AN155" s="91"/>
+      <c r="AO155" s="91"/>
+      <c r="AP155" s="91"/>
+      <c r="AQ155" s="91"/>
+      <c r="AR155" s="91"/>
+      <c r="AS155" s="91"/>
+      <c r="AT155" s="91"/>
+      <c r="AU155" s="91"/>
+      <c r="AV155" s="92"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="B156" s="59"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="96"/>
-      <c r="E156" s="96"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="97"/>
-      <c r="H156" s="98"/>
-      <c r="I156" s="98"/>
-      <c r="J156" s="98"/>
-      <c r="K156" s="98"/>
-      <c r="L156" s="98"/>
-      <c r="M156" s="98"/>
-      <c r="N156" s="98"/>
-      <c r="O156" s="98"/>
-      <c r="P156" s="98"/>
-      <c r="Q156" s="98"/>
-      <c r="R156" s="98"/>
-      <c r="S156" s="98"/>
-      <c r="T156" s="98"/>
-      <c r="U156" s="98"/>
-      <c r="V156" s="96"/>
-      <c r="W156" s="96"/>
-      <c r="X156" s="98"/>
-      <c r="Y156" s="98"/>
-      <c r="Z156" s="98"/>
-      <c r="AA156" s="98"/>
-      <c r="AB156" s="98"/>
-      <c r="AC156" s="98"/>
-      <c r="AD156" s="98"/>
-      <c r="AE156" s="98"/>
-      <c r="AF156" s="98"/>
-      <c r="AG156" s="98"/>
-      <c r="AH156" s="98"/>
-      <c r="AI156" s="98"/>
-      <c r="AJ156" s="98"/>
-      <c r="AK156" s="98"/>
-      <c r="AL156" s="98"/>
-      <c r="AM156" s="98"/>
-      <c r="AN156" s="98"/>
-      <c r="AO156" s="98"/>
-      <c r="AP156" s="98"/>
-      <c r="AQ156" s="98"/>
-      <c r="AR156" s="98"/>
-      <c r="AS156" s="98"/>
-      <c r="AT156" s="98"/>
-      <c r="AU156" s="98"/>
-      <c r="AV156" s="98"/>
+      <c r="D156" s="98"/>
+      <c r="E156" s="98"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="99"/>
+      <c r="H156" s="100"/>
+      <c r="I156" s="100"/>
+      <c r="J156" s="100"/>
+      <c r="K156" s="100"/>
+      <c r="L156" s="100"/>
+      <c r="M156" s="100"/>
+      <c r="N156" s="100"/>
+      <c r="O156" s="100"/>
+      <c r="P156" s="100"/>
+      <c r="Q156" s="100"/>
+      <c r="R156" s="100"/>
+      <c r="S156" s="100"/>
+      <c r="T156" s="100"/>
+      <c r="U156" s="100"/>
+      <c r="V156" s="98"/>
+      <c r="W156" s="98"/>
+      <c r="X156" s="100"/>
+      <c r="Y156" s="100"/>
+      <c r="Z156" s="100"/>
+      <c r="AA156" s="100"/>
+      <c r="AB156" s="100"/>
+      <c r="AC156" s="100"/>
+      <c r="AD156" s="100"/>
+      <c r="AE156" s="100"/>
+      <c r="AF156" s="100"/>
+      <c r="AG156" s="100"/>
+      <c r="AH156" s="100"/>
+      <c r="AI156" s="100"/>
+      <c r="AJ156" s="100"/>
+      <c r="AK156" s="100"/>
+      <c r="AL156" s="100"/>
+      <c r="AM156" s="100"/>
+      <c r="AN156" s="100"/>
+      <c r="AO156" s="100"/>
+      <c r="AP156" s="100"/>
+      <c r="AQ156" s="100"/>
+      <c r="AR156" s="100"/>
+      <c r="AS156" s="100"/>
+      <c r="AT156" s="100"/>
+      <c r="AU156" s="100"/>
+      <c r="AV156" s="100"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10078,7 +9921,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10454,8 +10297,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S159" activeCellId="0" sqref="S159"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D93" activeCellId="0" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10465,7 +10308,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="3" style="9" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="9" width="3.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="37" style="9" width="2.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="99" width="2.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="101" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="1" width="2.64"/>
   </cols>
   <sheetData>
@@ -10523,7 +10366,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -10623,7 +10466,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -10639,7 +10482,7 @@
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
@@ -10704,7 +10547,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -10730,316 +10573,316 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AW7" s="100"/>
+      <c r="AW7" s="102"/>
     </row>
     <row r="8" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="AW8" s="103"/>
+      <c r="A8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="AW8" s="105"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
     <row r="9" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="AW9" s="103"/>
+      <c r="A9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="AW9" s="105"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
     <row r="10" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="AW10" s="103"/>
+      <c r="A10" s="103"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="AW10" s="105"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
     <row r="11" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="AW11" s="103"/>
+      <c r="A11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="AW11" s="105"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
     <row r="12" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="AW12" s="103"/>
+      <c r="A12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="AW12" s="105"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
     <row r="13" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="AW13" s="103"/>
+      <c r="A13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="AW13" s="105"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
     <row r="14" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="AW14" s="103"/>
+      <c r="A14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="AW14" s="105"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
     </row>
     <row r="15" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="AW15" s="103"/>
+      <c r="A15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="AW15" s="105"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
     </row>
     <row r="16" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="AW16" s="103"/>
+      <c r="A16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="AW16" s="105"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
     </row>
     <row r="17" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="AW17" s="103"/>
+      <c r="A17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="AW17" s="105"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
     <row r="18" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="AW18" s="103"/>
+      <c r="A18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="AW18" s="105"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
     <row r="19" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="AW19" s="103"/>
+      <c r="A19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="AW19" s="105"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
     <row r="20" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="AW20" s="103"/>
+      <c r="A20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="AW20" s="105"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
     <row r="21" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="AW21" s="103"/>
+      <c r="A21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="AW21" s="105"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
     <row r="22" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="AW22" s="103"/>
+      <c r="A22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="AW22" s="105"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
     <row r="23" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="AW23" s="103"/>
+      <c r="A23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="AW23" s="105"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
     <row r="24" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="AW24" s="103"/>
+      <c r="A24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="AW24" s="105"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
     <row r="25" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="AW25" s="103"/>
+      <c r="A25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="AW25" s="105"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
     <row r="26" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="AW26" s="103"/>
+      <c r="A26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="AW26" s="105"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
     <row r="27" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="AW27" s="103"/>
+      <c r="A27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="AW27" s="105"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
     <row r="28" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="AW28" s="103"/>
+      <c r="A28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="AW28" s="105"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
     <row r="29" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="AW29" s="103"/>
+      <c r="A29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="AW29" s="105"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
     <row r="30" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="AW30" s="103"/>
+      <c r="A30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="AW30" s="105"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
     <row r="31" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="AW31" s="103"/>
+      <c r="A31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="AW31" s="105"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
     <row r="32" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="AW32" s="103"/>
+      <c r="A32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="AW32" s="105"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
     <row r="33" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="AW33" s="103"/>
+      <c r="A33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="AW33" s="105"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -11052,7 +10895,7 @@
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="20"/>
-      <c r="AX34" s="99"/>
+      <c r="AX34" s="101"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
@@ -11062,7 +10905,7 @@
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="20"/>
-      <c r="AX35" s="99"/>
+      <c r="AX35" s="101"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
@@ -11072,7 +10915,7 @@
       <c r="AU36" s="9"/>
       <c r="AV36" s="9"/>
       <c r="AW36" s="20"/>
-      <c r="AX36" s="99"/>
+      <c r="AX36" s="101"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
@@ -11082,7 +10925,7 @@
       <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
       <c r="AW37" s="20"/>
-      <c r="AX37" s="99"/>
+      <c r="AX37" s="101"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
@@ -11092,7 +10935,7 @@
       <c r="AU38" s="9"/>
       <c r="AV38" s="9"/>
       <c r="AW38" s="20"/>
-      <c r="AX38" s="99"/>
+      <c r="AX38" s="101"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
@@ -11102,7 +10945,7 @@
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="20"/>
-      <c r="AX39" s="99"/>
+      <c r="AX39" s="101"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
@@ -11112,7 +10955,7 @@
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="20"/>
-      <c r="AX40" s="99"/>
+      <c r="AX40" s="101"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -11168,7 +11011,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11268,7 +11111,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -11284,7 +11127,7 @@
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
@@ -11305,7 +11148,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11338,7 +11181,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11352,365 +11195,365 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
-      <c r="C48" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA48" s="105"/>
-      <c r="AB48" s="105"/>
-      <c r="AC48" s="105"/>
-      <c r="AD48" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="73"/>
-      <c r="AM48" s="73"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="73"/>
-      <c r="AP48" s="73"/>
-      <c r="AQ48" s="73"/>
-      <c r="AR48" s="73"/>
-      <c r="AS48" s="73"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
+      <c r="C48" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U48" s="74"/>
+      <c r="V48" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA48" s="107"/>
+      <c r="AB48" s="107"/>
+      <c r="AC48" s="107"/>
+      <c r="AD48" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE48" s="75"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
       <c r="AW48" s="20"/>
-      <c r="AX48" s="106"/>
+      <c r="AX48" s="108"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
-      <c r="C49" s="107" t="n">
+      <c r="C49" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="110" t="n">
+      <c r="D49" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="112" t="n">
         <v>32</v>
       </c>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="112"/>
-      <c r="R49" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="S49" s="113"/>
-      <c r="T49" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U49" s="107"/>
-      <c r="V49" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="113"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="108"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="109"/>
-      <c r="AK49" s="109"/>
-      <c r="AL49" s="109"/>
-      <c r="AM49" s="109"/>
-      <c r="AN49" s="109"/>
-      <c r="AO49" s="109"/>
-      <c r="AP49" s="109"/>
-      <c r="AQ49" s="109"/>
-      <c r="AR49" s="109"/>
-      <c r="AS49" s="109"/>
-      <c r="AT49" s="109"/>
-      <c r="AU49" s="109"/>
-      <c r="AV49" s="115"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49" s="115"/>
+      <c r="T49" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U49" s="109"/>
+      <c r="V49" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="115"/>
+      <c r="Z49" s="116"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="111"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="110"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="111"/>
+      <c r="AG49" s="111"/>
+      <c r="AH49" s="111"/>
+      <c r="AI49" s="111"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
+      <c r="AL49" s="111"/>
+      <c r="AM49" s="111"/>
+      <c r="AN49" s="111"/>
+      <c r="AO49" s="111"/>
+      <c r="AP49" s="111"/>
+      <c r="AQ49" s="111"/>
+      <c r="AR49" s="111"/>
+      <c r="AS49" s="111"/>
+      <c r="AT49" s="111"/>
+      <c r="AU49" s="111"/>
+      <c r="AV49" s="117"/>
       <c r="AW49" s="20"/>
-      <c r="AX49" s="116"/>
+      <c r="AX49" s="118"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
-      <c r="C50" s="117" t="n">
+      <c r="C50" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="S50" s="123"/>
-      <c r="T50" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U50" s="107"/>
-      <c r="V50" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W50" s="119"/>
-      <c r="X50" s="119"/>
-      <c r="Y50" s="123"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="119"/>
-      <c r="AB50" s="119"/>
-      <c r="AC50" s="119"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="119"/>
-      <c r="AF50" s="119"/>
-      <c r="AG50" s="119"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="119"/>
-      <c r="AJ50" s="119"/>
-      <c r="AK50" s="119"/>
-      <c r="AL50" s="119"/>
-      <c r="AM50" s="119"/>
-      <c r="AN50" s="119"/>
-      <c r="AO50" s="119"/>
-      <c r="AP50" s="119"/>
-      <c r="AQ50" s="119"/>
-      <c r="AR50" s="119"/>
-      <c r="AS50" s="119"/>
-      <c r="AT50" s="119"/>
-      <c r="AU50" s="119"/>
-      <c r="AV50" s="125"/>
+      <c r="D50" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="S50" s="125"/>
+      <c r="T50" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U50" s="109"/>
+      <c r="V50" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="125"/>
+      <c r="Z50" s="126"/>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="121"/>
+      <c r="AC50" s="121"/>
+      <c r="AD50" s="120"/>
+      <c r="AE50" s="121"/>
+      <c r="AF50" s="121"/>
+      <c r="AG50" s="121"/>
+      <c r="AH50" s="121"/>
+      <c r="AI50" s="121"/>
+      <c r="AJ50" s="121"/>
+      <c r="AK50" s="121"/>
+      <c r="AL50" s="121"/>
+      <c r="AM50" s="121"/>
+      <c r="AN50" s="121"/>
+      <c r="AO50" s="121"/>
+      <c r="AP50" s="121"/>
+      <c r="AQ50" s="121"/>
+      <c r="AR50" s="121"/>
+      <c r="AS50" s="121"/>
+      <c r="AT50" s="121"/>
+      <c r="AU50" s="121"/>
+      <c r="AV50" s="127"/>
       <c r="AW50" s="20"/>
-      <c r="AX50" s="116"/>
+      <c r="AX50" s="118"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
-      <c r="C51" s="117" t="n">
+      <c r="C51" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="S51" s="123"/>
-      <c r="T51" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U51" s="107"/>
-      <c r="V51" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W51" s="119"/>
-      <c r="X51" s="119"/>
-      <c r="Y51" s="123"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="119"/>
-      <c r="AB51" s="119"/>
-      <c r="AC51" s="119"/>
-      <c r="AD51" s="118"/>
-      <c r="AE51" s="119"/>
-      <c r="AF51" s="119"/>
-      <c r="AG51" s="119"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="119"/>
-      <c r="AK51" s="119"/>
-      <c r="AL51" s="119"/>
-      <c r="AM51" s="119"/>
-      <c r="AN51" s="119"/>
-      <c r="AO51" s="119"/>
-      <c r="AP51" s="119"/>
-      <c r="AQ51" s="119"/>
-      <c r="AR51" s="119"/>
-      <c r="AS51" s="119"/>
-      <c r="AT51" s="119"/>
-      <c r="AU51" s="119"/>
-      <c r="AV51" s="125"/>
+      <c r="D51" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="S51" s="125"/>
+      <c r="T51" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U51" s="109"/>
+      <c r="V51" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="125"/>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="121"/>
+      <c r="AB51" s="121"/>
+      <c r="AC51" s="121"/>
+      <c r="AD51" s="120"/>
+      <c r="AE51" s="121"/>
+      <c r="AF51" s="121"/>
+      <c r="AG51" s="121"/>
+      <c r="AH51" s="121"/>
+      <c r="AI51" s="121"/>
+      <c r="AJ51" s="121"/>
+      <c r="AK51" s="121"/>
+      <c r="AL51" s="121"/>
+      <c r="AM51" s="121"/>
+      <c r="AN51" s="121"/>
+      <c r="AO51" s="121"/>
+      <c r="AP51" s="121"/>
+      <c r="AQ51" s="121"/>
+      <c r="AR51" s="121"/>
+      <c r="AS51" s="121"/>
+      <c r="AT51" s="121"/>
+      <c r="AU51" s="121"/>
+      <c r="AV51" s="127"/>
       <c r="AW51" s="20"/>
-      <c r="AX51" s="116"/>
+      <c r="AX51" s="118"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="130"/>
-      <c r="V52" s="128"/>
-      <c r="W52" s="128"/>
-      <c r="X52" s="128"/>
-      <c r="Y52" s="128"/>
-      <c r="Z52" s="127"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="128"/>
-      <c r="AC52" s="128"/>
-      <c r="AD52" s="128"/>
-      <c r="AE52" s="128"/>
-      <c r="AF52" s="128"/>
-      <c r="AG52" s="128"/>
-      <c r="AH52" s="128"/>
-      <c r="AI52" s="128"/>
-      <c r="AJ52" s="128"/>
-      <c r="AK52" s="128"/>
-      <c r="AL52" s="128"/>
-      <c r="AM52" s="128"/>
-      <c r="AN52" s="128"/>
-      <c r="AO52" s="128"/>
-      <c r="AP52" s="128"/>
-      <c r="AQ52" s="128"/>
-      <c r="AR52" s="128"/>
-      <c r="AS52" s="128"/>
-      <c r="AT52" s="128"/>
-      <c r="AU52" s="128"/>
-      <c r="AV52" s="131"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
+      <c r="Q52" s="131"/>
+      <c r="R52" s="131"/>
+      <c r="S52" s="130"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="130"/>
+      <c r="W52" s="130"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="130"/>
+      <c r="Z52" s="129"/>
+      <c r="AA52" s="130"/>
+      <c r="AB52" s="130"/>
+      <c r="AC52" s="130"/>
+      <c r="AD52" s="130"/>
+      <c r="AE52" s="130"/>
+      <c r="AF52" s="130"/>
+      <c r="AG52" s="130"/>
+      <c r="AH52" s="130"/>
+      <c r="AI52" s="130"/>
+      <c r="AJ52" s="130"/>
+      <c r="AK52" s="130"/>
+      <c r="AL52" s="130"/>
+      <c r="AM52" s="130"/>
+      <c r="AN52" s="130"/>
+      <c r="AO52" s="130"/>
+      <c r="AP52" s="130"/>
+      <c r="AQ52" s="130"/>
+      <c r="AR52" s="130"/>
+      <c r="AS52" s="130"/>
+      <c r="AT52" s="130"/>
+      <c r="AU52" s="130"/>
+      <c r="AV52" s="133"/>
       <c r="AW52" s="20"/>
-      <c r="AX52" s="116"/>
+      <c r="AX52" s="118"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="130"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="128"/>
-      <c r="X53" s="128"/>
-      <c r="Y53" s="128"/>
-      <c r="Z53" s="127"/>
-      <c r="AA53" s="128"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="128"/>
-      <c r="AG53" s="128"/>
-      <c r="AH53" s="128"/>
-      <c r="AI53" s="128"/>
-      <c r="AJ53" s="128"/>
-      <c r="AK53" s="128"/>
-      <c r="AL53" s="128"/>
-      <c r="AM53" s="128"/>
-      <c r="AN53" s="128"/>
-      <c r="AO53" s="128"/>
-      <c r="AP53" s="128"/>
-      <c r="AQ53" s="128"/>
-      <c r="AR53" s="128"/>
-      <c r="AS53" s="128"/>
-      <c r="AT53" s="128"/>
-      <c r="AU53" s="128"/>
-      <c r="AV53" s="131"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
+      <c r="Q53" s="131"/>
+      <c r="R53" s="131"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="132"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="130"/>
+      <c r="Y53" s="130"/>
+      <c r="Z53" s="129"/>
+      <c r="AA53" s="130"/>
+      <c r="AB53" s="130"/>
+      <c r="AC53" s="130"/>
+      <c r="AD53" s="130"/>
+      <c r="AE53" s="130"/>
+      <c r="AF53" s="130"/>
+      <c r="AG53" s="130"/>
+      <c r="AH53" s="130"/>
+      <c r="AI53" s="130"/>
+      <c r="AJ53" s="130"/>
+      <c r="AK53" s="130"/>
+      <c r="AL53" s="130"/>
+      <c r="AM53" s="130"/>
+      <c r="AN53" s="130"/>
+      <c r="AO53" s="130"/>
+      <c r="AP53" s="130"/>
+      <c r="AQ53" s="130"/>
+      <c r="AR53" s="130"/>
+      <c r="AS53" s="130"/>
+      <c r="AT53" s="130"/>
+      <c r="AU53" s="130"/>
+      <c r="AV53" s="133"/>
       <c r="AW53" s="20"/>
-      <c r="AX53" s="116"/>
+      <c r="AX53" s="118"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
@@ -11719,7 +11562,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11740,16 +11583,16 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
-      <c r="W55" s="132"/>
-      <c r="X55" s="132"/>
-      <c r="Y55" s="132"/>
-      <c r="Z55" s="132"/>
+      <c r="W55" s="134"/>
+      <c r="X55" s="134"/>
+      <c r="Y55" s="134"/>
+      <c r="Z55" s="134"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
-      <c r="AE55" s="132"/>
-      <c r="AF55" s="132"/>
+      <c r="AE55" s="134"/>
+      <c r="AF55" s="134"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
@@ -11769,223 +11612,223 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="O56" s="134"/>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="134"/>
-      <c r="V56" s="134"/>
-      <c r="W56" s="134"/>
-      <c r="X56" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="73"/>
-      <c r="AG56" s="73"/>
-      <c r="AH56" s="73"/>
-      <c r="AI56" s="73"/>
-      <c r="AJ56" s="73"/>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="73"/>
-      <c r="AM56" s="73"/>
-      <c r="AN56" s="73"/>
-      <c r="AO56" s="73"/>
-      <c r="AP56" s="73"/>
-      <c r="AQ56" s="73"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="73"/>
-      <c r="AT56" s="73"/>
-      <c r="AU56" s="73"/>
-      <c r="AV56" s="73"/>
+      <c r="C56" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="136"/>
+      <c r="S56" s="136"/>
+      <c r="T56" s="136"/>
+      <c r="U56" s="136"/>
+      <c r="V56" s="136"/>
+      <c r="W56" s="136"/>
+      <c r="X56" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="75"/>
+      <c r="AA56" s="75"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="75"/>
+      <c r="AI56" s="75"/>
+      <c r="AJ56" s="75"/>
+      <c r="AK56" s="75"/>
+      <c r="AL56" s="75"/>
+      <c r="AM56" s="75"/>
+      <c r="AN56" s="75"/>
+      <c r="AO56" s="75"/>
+      <c r="AP56" s="75"/>
+      <c r="AQ56" s="75"/>
+      <c r="AR56" s="75"/>
+      <c r="AS56" s="75"/>
+      <c r="AT56" s="75"/>
+      <c r="AU56" s="75"/>
+      <c r="AV56" s="75"/>
       <c r="AW56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="135" t="n">
+      <c r="C57" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="137"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="O57" s="137"/>
-      <c r="P57" s="137"/>
-      <c r="Q57" s="137"/>
-      <c r="R57" s="137"/>
-      <c r="S57" s="137"/>
-      <c r="T57" s="137"/>
-      <c r="U57" s="137"/>
-      <c r="V57" s="137"/>
-      <c r="W57" s="138"/>
-      <c r="X57" s="136"/>
-      <c r="Y57" s="139"/>
-      <c r="Z57" s="139"/>
-      <c r="AA57" s="139"/>
-      <c r="AB57" s="137"/>
-      <c r="AC57" s="137"/>
-      <c r="AD57" s="137"/>
-      <c r="AE57" s="137"/>
-      <c r="AF57" s="139"/>
-      <c r="AG57" s="139"/>
-      <c r="AH57" s="137"/>
-      <c r="AI57" s="137"/>
-      <c r="AJ57" s="137"/>
-      <c r="AK57" s="137"/>
-      <c r="AL57" s="137"/>
-      <c r="AM57" s="137"/>
-      <c r="AN57" s="137"/>
-      <c r="AO57" s="137"/>
-      <c r="AP57" s="137"/>
-      <c r="AQ57" s="137"/>
-      <c r="AR57" s="137"/>
-      <c r="AS57" s="137"/>
-      <c r="AT57" s="137"/>
-      <c r="AU57" s="137"/>
-      <c r="AV57" s="138"/>
+      <c r="D57" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" s="139"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="139"/>
+      <c r="R57" s="139"/>
+      <c r="S57" s="139"/>
+      <c r="T57" s="139"/>
+      <c r="U57" s="139"/>
+      <c r="V57" s="139"/>
+      <c r="W57" s="140"/>
+      <c r="X57" s="138"/>
+      <c r="Y57" s="141"/>
+      <c r="Z57" s="141"/>
+      <c r="AA57" s="141"/>
+      <c r="AB57" s="139"/>
+      <c r="AC57" s="139"/>
+      <c r="AD57" s="139"/>
+      <c r="AE57" s="139"/>
+      <c r="AF57" s="141"/>
+      <c r="AG57" s="141"/>
+      <c r="AH57" s="139"/>
+      <c r="AI57" s="139"/>
+      <c r="AJ57" s="139"/>
+      <c r="AK57" s="139"/>
+      <c r="AL57" s="139"/>
+      <c r="AM57" s="139"/>
+      <c r="AN57" s="139"/>
+      <c r="AO57" s="139"/>
+      <c r="AP57" s="139"/>
+      <c r="AQ57" s="139"/>
+      <c r="AR57" s="139"/>
+      <c r="AS57" s="139"/>
+      <c r="AT57" s="139"/>
+      <c r="AU57" s="139"/>
+      <c r="AV57" s="140"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
-      <c r="P58" s="141"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="141"/>
-      <c r="S58" s="141"/>
-      <c r="T58" s="141"/>
-      <c r="U58" s="141"/>
-      <c r="V58" s="141"/>
-      <c r="W58" s="141"/>
-      <c r="X58" s="141"/>
-      <c r="Y58" s="140"/>
-      <c r="Z58" s="140"/>
-      <c r="AA58" s="140"/>
-      <c r="AB58" s="141"/>
-      <c r="AC58" s="141"/>
-      <c r="AD58" s="141"/>
-      <c r="AE58" s="141"/>
-      <c r="AF58" s="140"/>
-      <c r="AG58" s="140"/>
-      <c r="AH58" s="141"/>
-      <c r="AI58" s="141"/>
-      <c r="AJ58" s="141"/>
-      <c r="AK58" s="141"/>
-      <c r="AL58" s="141"/>
-      <c r="AM58" s="141"/>
-      <c r="AN58" s="141"/>
-      <c r="AO58" s="141"/>
-      <c r="AP58" s="141"/>
-      <c r="AQ58" s="141"/>
-      <c r="AR58" s="141"/>
-      <c r="AS58" s="141"/>
-      <c r="AT58" s="141"/>
-      <c r="AU58" s="141"/>
-      <c r="AV58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
+      <c r="K58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="143"/>
+      <c r="S58" s="143"/>
+      <c r="T58" s="143"/>
+      <c r="U58" s="143"/>
+      <c r="V58" s="143"/>
+      <c r="W58" s="143"/>
+      <c r="X58" s="143"/>
+      <c r="Y58" s="142"/>
+      <c r="Z58" s="142"/>
+      <c r="AA58" s="142"/>
+      <c r="AB58" s="143"/>
+      <c r="AC58" s="143"/>
+      <c r="AD58" s="143"/>
+      <c r="AE58" s="143"/>
+      <c r="AF58" s="142"/>
+      <c r="AG58" s="142"/>
+      <c r="AH58" s="143"/>
+      <c r="AI58" s="143"/>
+      <c r="AJ58" s="143"/>
+      <c r="AK58" s="143"/>
+      <c r="AL58" s="143"/>
+      <c r="AM58" s="143"/>
+      <c r="AN58" s="143"/>
+      <c r="AO58" s="143"/>
+      <c r="AP58" s="143"/>
+      <c r="AQ58" s="143"/>
+      <c r="AR58" s="143"/>
+      <c r="AS58" s="143"/>
+      <c r="AT58" s="143"/>
+      <c r="AU58" s="143"/>
+      <c r="AV58" s="143"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="141"/>
-      <c r="U59" s="141"/>
-      <c r="V59" s="141"/>
-      <c r="W59" s="141"/>
-      <c r="X59" s="141"/>
-      <c r="Y59" s="140"/>
-      <c r="Z59" s="140"/>
-      <c r="AA59" s="140"/>
-      <c r="AB59" s="141"/>
-      <c r="AC59" s="141"/>
-      <c r="AD59" s="141"/>
-      <c r="AE59" s="141"/>
-      <c r="AF59" s="140"/>
-      <c r="AG59" s="140"/>
-      <c r="AH59" s="141"/>
-      <c r="AI59" s="141"/>
-      <c r="AJ59" s="141"/>
-      <c r="AK59" s="141"/>
-      <c r="AL59" s="141"/>
-      <c r="AM59" s="141"/>
-      <c r="AN59" s="141"/>
-      <c r="AO59" s="141"/>
-      <c r="AP59" s="141"/>
-      <c r="AQ59" s="141"/>
-      <c r="AR59" s="141"/>
-      <c r="AS59" s="141"/>
-      <c r="AT59" s="141"/>
-      <c r="AU59" s="141"/>
-      <c r="AV59" s="142"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
+      <c r="T59" s="143"/>
+      <c r="U59" s="143"/>
+      <c r="V59" s="143"/>
+      <c r="W59" s="143"/>
+      <c r="X59" s="143"/>
+      <c r="Y59" s="142"/>
+      <c r="Z59" s="142"/>
+      <c r="AA59" s="142"/>
+      <c r="AB59" s="143"/>
+      <c r="AC59" s="143"/>
+      <c r="AD59" s="143"/>
+      <c r="AE59" s="143"/>
+      <c r="AF59" s="142"/>
+      <c r="AG59" s="142"/>
+      <c r="AH59" s="143"/>
+      <c r="AI59" s="143"/>
+      <c r="AJ59" s="143"/>
+      <c r="AK59" s="143"/>
+      <c r="AL59" s="143"/>
+      <c r="AM59" s="143"/>
+      <c r="AN59" s="143"/>
+      <c r="AO59" s="143"/>
+      <c r="AP59" s="143"/>
+      <c r="AQ59" s="143"/>
+      <c r="AR59" s="143"/>
+      <c r="AS59" s="143"/>
+      <c r="AT59" s="143"/>
+      <c r="AU59" s="143"/>
+      <c r="AV59" s="144"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="143"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -12006,15 +11849,15 @@
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
-      <c r="Y60" s="132"/>
-      <c r="Z60" s="132"/>
-      <c r="AA60" s="132"/>
+      <c r="Y60" s="134"/>
+      <c r="Z60" s="134"/>
+      <c r="AA60" s="134"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
-      <c r="AF60" s="132"/>
-      <c r="AG60" s="132"/>
+      <c r="AF60" s="134"/>
+      <c r="AG60" s="134"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
@@ -12034,7 +11877,7 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="C61" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -12055,16 +11898,16 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
-      <c r="W61" s="132"/>
-      <c r="X61" s="132"/>
-      <c r="Y61" s="132"/>
-      <c r="Z61" s="132"/>
+      <c r="W61" s="134"/>
+      <c r="X61" s="134"/>
+      <c r="Y61" s="134"/>
+      <c r="Z61" s="134"/>
       <c r="AA61" s="19"/>
       <c r="AB61" s="19"/>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19"/>
-      <c r="AE61" s="132"/>
-      <c r="AF61" s="132"/>
+      <c r="AE61" s="134"/>
+      <c r="AF61" s="134"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
@@ -12084,394 +11927,394 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
-      <c r="C62" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="O62" s="134"/>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="134"/>
-      <c r="S62" s="134"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="134"/>
-      <c r="V62" s="134"/>
-      <c r="W62" s="134"/>
-      <c r="X62" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y62" s="73"/>
-      <c r="Z62" s="73"/>
-      <c r="AA62" s="73"/>
-      <c r="AB62" s="73"/>
-      <c r="AC62" s="73"/>
-      <c r="AD62" s="73"/>
-      <c r="AE62" s="73"/>
-      <c r="AF62" s="73"/>
-      <c r="AG62" s="73"/>
-      <c r="AH62" s="73"/>
-      <c r="AI62" s="73"/>
-      <c r="AJ62" s="73"/>
-      <c r="AK62" s="73"/>
-      <c r="AL62" s="73"/>
-      <c r="AM62" s="73"/>
-      <c r="AN62" s="73"/>
-      <c r="AO62" s="73"/>
-      <c r="AP62" s="73"/>
-      <c r="AQ62" s="73"/>
-      <c r="AR62" s="73"/>
-      <c r="AS62" s="73"/>
-      <c r="AT62" s="73"/>
-      <c r="AU62" s="73"/>
-      <c r="AV62" s="73"/>
+      <c r="C62" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="O62" s="136"/>
+      <c r="P62" s="136"/>
+      <c r="Q62" s="136"/>
+      <c r="R62" s="136"/>
+      <c r="S62" s="136"/>
+      <c r="T62" s="136"/>
+      <c r="U62" s="136"/>
+      <c r="V62" s="136"/>
+      <c r="W62" s="136"/>
+      <c r="X62" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="75"/>
+      <c r="AA62" s="75"/>
+      <c r="AB62" s="75"/>
+      <c r="AC62" s="75"/>
+      <c r="AD62" s="75"/>
+      <c r="AE62" s="75"/>
+      <c r="AF62" s="75"/>
+      <c r="AG62" s="75"/>
+      <c r="AH62" s="75"/>
+      <c r="AI62" s="75"/>
+      <c r="AJ62" s="75"/>
+      <c r="AK62" s="75"/>
+      <c r="AL62" s="75"/>
+      <c r="AM62" s="75"/>
+      <c r="AN62" s="75"/>
+      <c r="AO62" s="75"/>
+      <c r="AP62" s="75"/>
+      <c r="AQ62" s="75"/>
+      <c r="AR62" s="75"/>
+      <c r="AS62" s="75"/>
+      <c r="AT62" s="75"/>
+      <c r="AU62" s="75"/>
+      <c r="AV62" s="75"/>
       <c r="AW62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
-      <c r="C63" s="144" t="n">
+      <c r="C63" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O63" s="148"/>
-      <c r="P63" s="148"/>
-      <c r="Q63" s="148"/>
-      <c r="R63" s="148"/>
-      <c r="S63" s="148"/>
-      <c r="T63" s="148"/>
-      <c r="U63" s="148"/>
-      <c r="V63" s="148"/>
-      <c r="W63" s="149"/>
-      <c r="X63" s="147"/>
-      <c r="Y63" s="150"/>
-      <c r="Z63" s="150"/>
-      <c r="AA63" s="150"/>
-      <c r="AB63" s="148"/>
-      <c r="AC63" s="148"/>
-      <c r="AD63" s="148"/>
-      <c r="AE63" s="148"/>
-      <c r="AF63" s="150"/>
-      <c r="AG63" s="150"/>
-      <c r="AH63" s="148"/>
-      <c r="AI63" s="148"/>
-      <c r="AJ63" s="148"/>
-      <c r="AK63" s="148"/>
-      <c r="AL63" s="148"/>
-      <c r="AM63" s="148"/>
-      <c r="AN63" s="148"/>
-      <c r="AO63" s="148"/>
-      <c r="AP63" s="148"/>
-      <c r="AQ63" s="148"/>
-      <c r="AR63" s="148"/>
-      <c r="AS63" s="148"/>
-      <c r="AT63" s="148"/>
-      <c r="AU63" s="148"/>
-      <c r="AV63" s="149"/>
+      <c r="D63" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="148"/>
+      <c r="N63" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O63" s="150"/>
+      <c r="P63" s="150"/>
+      <c r="Q63" s="150"/>
+      <c r="R63" s="150"/>
+      <c r="S63" s="150"/>
+      <c r="T63" s="150"/>
+      <c r="U63" s="150"/>
+      <c r="V63" s="150"/>
+      <c r="W63" s="151"/>
+      <c r="X63" s="149"/>
+      <c r="Y63" s="152"/>
+      <c r="Z63" s="152"/>
+      <c r="AA63" s="152"/>
+      <c r="AB63" s="150"/>
+      <c r="AC63" s="150"/>
+      <c r="AD63" s="150"/>
+      <c r="AE63" s="150"/>
+      <c r="AF63" s="152"/>
+      <c r="AG63" s="152"/>
+      <c r="AH63" s="150"/>
+      <c r="AI63" s="150"/>
+      <c r="AJ63" s="150"/>
+      <c r="AK63" s="150"/>
+      <c r="AL63" s="150"/>
+      <c r="AM63" s="150"/>
+      <c r="AN63" s="150"/>
+      <c r="AO63" s="150"/>
+      <c r="AP63" s="150"/>
+      <c r="AQ63" s="150"/>
+      <c r="AR63" s="150"/>
+      <c r="AS63" s="150"/>
+      <c r="AT63" s="150"/>
+      <c r="AU63" s="150"/>
+      <c r="AV63" s="151"/>
       <c r="AW63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
-      <c r="C64" s="151" t="n">
+      <c r="C64" s="153" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="153"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O64" s="153"/>
-      <c r="P64" s="153"/>
-      <c r="Q64" s="153"/>
-      <c r="R64" s="153"/>
-      <c r="S64" s="153"/>
-      <c r="T64" s="153"/>
-      <c r="U64" s="153"/>
-      <c r="V64" s="153"/>
-      <c r="W64" s="154"/>
-      <c r="X64" s="152"/>
-      <c r="Y64" s="155"/>
-      <c r="Z64" s="155"/>
-      <c r="AA64" s="155"/>
-      <c r="AB64" s="153"/>
-      <c r="AC64" s="153"/>
-      <c r="AD64" s="153"/>
-      <c r="AE64" s="153"/>
-      <c r="AF64" s="155"/>
-      <c r="AG64" s="155"/>
-      <c r="AH64" s="153"/>
-      <c r="AI64" s="153"/>
-      <c r="AJ64" s="153"/>
-      <c r="AK64" s="153"/>
-      <c r="AL64" s="153"/>
-      <c r="AM64" s="153"/>
-      <c r="AN64" s="153"/>
-      <c r="AO64" s="153"/>
-      <c r="AP64" s="153"/>
-      <c r="AQ64" s="153"/>
-      <c r="AR64" s="153"/>
-      <c r="AS64" s="153"/>
-      <c r="AT64" s="153"/>
-      <c r="AU64" s="153"/>
-      <c r="AV64" s="154"/>
+      <c r="D64" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O64" s="155"/>
+      <c r="P64" s="155"/>
+      <c r="Q64" s="155"/>
+      <c r="R64" s="155"/>
+      <c r="S64" s="155"/>
+      <c r="T64" s="155"/>
+      <c r="U64" s="155"/>
+      <c r="V64" s="155"/>
+      <c r="W64" s="156"/>
+      <c r="X64" s="154"/>
+      <c r="Y64" s="157"/>
+      <c r="Z64" s="157"/>
+      <c r="AA64" s="157"/>
+      <c r="AB64" s="155"/>
+      <c r="AC64" s="155"/>
+      <c r="AD64" s="155"/>
+      <c r="AE64" s="155"/>
+      <c r="AF64" s="157"/>
+      <c r="AG64" s="157"/>
+      <c r="AH64" s="155"/>
+      <c r="AI64" s="155"/>
+      <c r="AJ64" s="155"/>
+      <c r="AK64" s="155"/>
+      <c r="AL64" s="155"/>
+      <c r="AM64" s="155"/>
+      <c r="AN64" s="155"/>
+      <c r="AO64" s="155"/>
+      <c r="AP64" s="155"/>
+      <c r="AQ64" s="155"/>
+      <c r="AR64" s="155"/>
+      <c r="AS64" s="155"/>
+      <c r="AT64" s="155"/>
+      <c r="AU64" s="155"/>
+      <c r="AV64" s="156"/>
       <c r="AW64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
-      <c r="C65" s="151" t="n">
+      <c r="C65" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="D65" s="156" t="s">
+      <c r="D65" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="159"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="160"/>
-      <c r="X65" s="161"/>
-      <c r="Y65" s="162"/>
-      <c r="Z65" s="162"/>
-      <c r="AA65" s="162"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="162"/>
-      <c r="AG65" s="162"/>
-      <c r="AH65" s="159"/>
-      <c r="AI65" s="159"/>
-      <c r="AJ65" s="159"/>
-      <c r="AK65" s="159"/>
-      <c r="AL65" s="159"/>
-      <c r="AM65" s="159"/>
-      <c r="AN65" s="159"/>
-      <c r="AO65" s="159"/>
-      <c r="AP65" s="159"/>
-      <c r="AQ65" s="159"/>
-      <c r="AR65" s="159"/>
-      <c r="AS65" s="159"/>
-      <c r="AT65" s="159"/>
-      <c r="AU65" s="159"/>
-      <c r="AV65" s="163"/>
+      <c r="O65" s="161"/>
+      <c r="P65" s="161"/>
+      <c r="Q65" s="161"/>
+      <c r="R65" s="161"/>
+      <c r="S65" s="161"/>
+      <c r="T65" s="161"/>
+      <c r="U65" s="161"/>
+      <c r="V65" s="161"/>
+      <c r="W65" s="162"/>
+      <c r="X65" s="163"/>
+      <c r="Y65" s="164"/>
+      <c r="Z65" s="164"/>
+      <c r="AA65" s="164"/>
+      <c r="AB65" s="161"/>
+      <c r="AC65" s="161"/>
+      <c r="AD65" s="161"/>
+      <c r="AE65" s="161"/>
+      <c r="AF65" s="164"/>
+      <c r="AG65" s="164"/>
+      <c r="AH65" s="161"/>
+      <c r="AI65" s="161"/>
+      <c r="AJ65" s="161"/>
+      <c r="AK65" s="161"/>
+      <c r="AL65" s="161"/>
+      <c r="AM65" s="161"/>
+      <c r="AN65" s="161"/>
+      <c r="AO65" s="161"/>
+      <c r="AP65" s="161"/>
+      <c r="AQ65" s="161"/>
+      <c r="AR65" s="161"/>
+      <c r="AS65" s="161"/>
+      <c r="AT65" s="161"/>
+      <c r="AU65" s="161"/>
+      <c r="AV65" s="165"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="151" t="n">
+      <c r="C66" s="153" t="n">
         <v>4</v>
       </c>
-      <c r="D66" s="156" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O66" s="159"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="159"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="159"/>
-      <c r="U66" s="159"/>
-      <c r="V66" s="159"/>
-      <c r="W66" s="160"/>
-      <c r="X66" s="161"/>
-      <c r="Y66" s="162"/>
-      <c r="Z66" s="162"/>
-      <c r="AA66" s="162"/>
-      <c r="AB66" s="159"/>
-      <c r="AC66" s="159"/>
-      <c r="AD66" s="159"/>
-      <c r="AE66" s="159"/>
-      <c r="AF66" s="162"/>
-      <c r="AG66" s="162"/>
-      <c r="AH66" s="159"/>
-      <c r="AI66" s="159"/>
-      <c r="AJ66" s="159"/>
-      <c r="AK66" s="159"/>
-      <c r="AL66" s="159"/>
-      <c r="AM66" s="159"/>
-      <c r="AN66" s="159"/>
-      <c r="AO66" s="159"/>
-      <c r="AP66" s="159"/>
-      <c r="AQ66" s="159"/>
-      <c r="AR66" s="159"/>
-      <c r="AS66" s="159"/>
-      <c r="AT66" s="159"/>
-      <c r="AU66" s="159"/>
-      <c r="AV66" s="163"/>
+      <c r="D66" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="160"/>
+      <c r="N66" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O66" s="161"/>
+      <c r="P66" s="161"/>
+      <c r="Q66" s="161"/>
+      <c r="R66" s="161"/>
+      <c r="S66" s="161"/>
+      <c r="T66" s="161"/>
+      <c r="U66" s="161"/>
+      <c r="V66" s="161"/>
+      <c r="W66" s="162"/>
+      <c r="X66" s="163"/>
+      <c r="Y66" s="164"/>
+      <c r="Z66" s="164"/>
+      <c r="AA66" s="164"/>
+      <c r="AB66" s="161"/>
+      <c r="AC66" s="161"/>
+      <c r="AD66" s="161"/>
+      <c r="AE66" s="161"/>
+      <c r="AF66" s="164"/>
+      <c r="AG66" s="164"/>
+      <c r="AH66" s="161"/>
+      <c r="AI66" s="161"/>
+      <c r="AJ66" s="161"/>
+      <c r="AK66" s="161"/>
+      <c r="AL66" s="161"/>
+      <c r="AM66" s="161"/>
+      <c r="AN66" s="161"/>
+      <c r="AO66" s="161"/>
+      <c r="AP66" s="161"/>
+      <c r="AQ66" s="161"/>
+      <c r="AR66" s="161"/>
+      <c r="AS66" s="161"/>
+      <c r="AT66" s="161"/>
+      <c r="AU66" s="161"/>
+      <c r="AV66" s="165"/>
       <c r="AW66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="141"/>
-      <c r="J67" s="141"/>
-      <c r="K67" s="141"/>
-      <c r="L67" s="141"/>
-      <c r="M67" s="141"/>
-      <c r="N67" s="141"/>
-      <c r="O67" s="141"/>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="141"/>
-      <c r="S67" s="141"/>
-      <c r="T67" s="141"/>
-      <c r="U67" s="141"/>
-      <c r="V67" s="141"/>
-      <c r="W67" s="141"/>
-      <c r="X67" s="141"/>
-      <c r="Y67" s="140"/>
-      <c r="Z67" s="140"/>
-      <c r="AA67" s="140"/>
-      <c r="AB67" s="141"/>
-      <c r="AC67" s="141"/>
-      <c r="AD67" s="141"/>
-      <c r="AE67" s="141"/>
-      <c r="AF67" s="140"/>
-      <c r="AG67" s="140"/>
-      <c r="AH67" s="141"/>
-      <c r="AI67" s="141"/>
-      <c r="AJ67" s="141"/>
-      <c r="AK67" s="141"/>
-      <c r="AL67" s="141"/>
-      <c r="AM67" s="141"/>
-      <c r="AN67" s="141"/>
-      <c r="AO67" s="141"/>
-      <c r="AP67" s="141"/>
-      <c r="AQ67" s="141"/>
-      <c r="AR67" s="141"/>
-      <c r="AS67" s="141"/>
-      <c r="AT67" s="141"/>
-      <c r="AU67" s="141"/>
-      <c r="AV67" s="142"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="143"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="143"/>
+      <c r="J67" s="143"/>
+      <c r="K67" s="143"/>
+      <c r="L67" s="143"/>
+      <c r="M67" s="143"/>
+      <c r="N67" s="143"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="143"/>
+      <c r="Q67" s="143"/>
+      <c r="R67" s="143"/>
+      <c r="S67" s="143"/>
+      <c r="T67" s="143"/>
+      <c r="U67" s="143"/>
+      <c r="V67" s="143"/>
+      <c r="W67" s="143"/>
+      <c r="X67" s="143"/>
+      <c r="Y67" s="142"/>
+      <c r="Z67" s="142"/>
+      <c r="AA67" s="142"/>
+      <c r="AB67" s="143"/>
+      <c r="AC67" s="143"/>
+      <c r="AD67" s="143"/>
+      <c r="AE67" s="143"/>
+      <c r="AF67" s="142"/>
+      <c r="AG67" s="142"/>
+      <c r="AH67" s="143"/>
+      <c r="AI67" s="143"/>
+      <c r="AJ67" s="143"/>
+      <c r="AK67" s="143"/>
+      <c r="AL67" s="143"/>
+      <c r="AM67" s="143"/>
+      <c r="AN67" s="143"/>
+      <c r="AO67" s="143"/>
+      <c r="AP67" s="143"/>
+      <c r="AQ67" s="143"/>
+      <c r="AR67" s="143"/>
+      <c r="AS67" s="143"/>
+      <c r="AT67" s="143"/>
+      <c r="AU67" s="143"/>
+      <c r="AV67" s="144"/>
       <c r="AW67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="141"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
-      <c r="J68" s="141"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="141"/>
-      <c r="M68" s="141"/>
-      <c r="N68" s="141"/>
-      <c r="O68" s="141"/>
-      <c r="P68" s="141"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="141"/>
-      <c r="S68" s="141"/>
-      <c r="T68" s="141"/>
-      <c r="U68" s="141"/>
-      <c r="V68" s="141"/>
-      <c r="W68" s="141"/>
-      <c r="X68" s="141"/>
-      <c r="Y68" s="140"/>
-      <c r="Z68" s="140"/>
-      <c r="AA68" s="140"/>
-      <c r="AB68" s="141"/>
-      <c r="AC68" s="141"/>
-      <c r="AD68" s="141"/>
-      <c r="AE68" s="141"/>
-      <c r="AF68" s="140"/>
-      <c r="AG68" s="140"/>
-      <c r="AH68" s="141"/>
-      <c r="AI68" s="141"/>
-      <c r="AJ68" s="141"/>
-      <c r="AK68" s="141"/>
-      <c r="AL68" s="141"/>
-      <c r="AM68" s="141"/>
-      <c r="AN68" s="141"/>
-      <c r="AO68" s="141"/>
-      <c r="AP68" s="141"/>
-      <c r="AQ68" s="141"/>
-      <c r="AR68" s="141"/>
-      <c r="AS68" s="141"/>
-      <c r="AT68" s="141"/>
-      <c r="AU68" s="141"/>
-      <c r="AV68" s="142"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="143"/>
+      <c r="J68" s="143"/>
+      <c r="K68" s="143"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="143"/>
+      <c r="N68" s="143"/>
+      <c r="O68" s="143"/>
+      <c r="P68" s="143"/>
+      <c r="Q68" s="143"/>
+      <c r="R68" s="143"/>
+      <c r="S68" s="143"/>
+      <c r="T68" s="143"/>
+      <c r="U68" s="143"/>
+      <c r="V68" s="143"/>
+      <c r="W68" s="143"/>
+      <c r="X68" s="143"/>
+      <c r="Y68" s="142"/>
+      <c r="Z68" s="142"/>
+      <c r="AA68" s="142"/>
+      <c r="AB68" s="143"/>
+      <c r="AC68" s="143"/>
+      <c r="AD68" s="143"/>
+      <c r="AE68" s="143"/>
+      <c r="AF68" s="142"/>
+      <c r="AG68" s="142"/>
+      <c r="AH68" s="143"/>
+      <c r="AI68" s="143"/>
+      <c r="AJ68" s="143"/>
+      <c r="AK68" s="143"/>
+      <c r="AL68" s="143"/>
+      <c r="AM68" s="143"/>
+      <c r="AN68" s="143"/>
+      <c r="AO68" s="143"/>
+      <c r="AP68" s="143"/>
+      <c r="AQ68" s="143"/>
+      <c r="AR68" s="143"/>
+      <c r="AS68" s="143"/>
+      <c r="AT68" s="143"/>
+      <c r="AU68" s="143"/>
+      <c r="AV68" s="144"/>
       <c r="AW68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="143"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="145"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12492,15 +12335,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="132"/>
-      <c r="Z69" s="132"/>
-      <c r="AA69" s="132"/>
+      <c r="Y69" s="134"/>
+      <c r="Z69" s="134"/>
+      <c r="AA69" s="134"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="132"/>
-      <c r="AG69" s="132"/>
+      <c r="AF69" s="134"/>
+      <c r="AG69" s="134"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12520,8 +12363,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="143"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="145"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -12542,15 +12385,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="132"/>
-      <c r="Z70" s="132"/>
-      <c r="AA70" s="132"/>
+      <c r="Y70" s="134"/>
+      <c r="Z70" s="134"/>
+      <c r="AA70" s="134"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="132"/>
-      <c r="AG70" s="132"/>
+      <c r="AF70" s="134"/>
+      <c r="AG70" s="134"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -12570,8 +12413,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="143"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="145"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -12592,15 +12435,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="132"/>
-      <c r="Z71" s="132"/>
-      <c r="AA71" s="132"/>
+      <c r="Y71" s="134"/>
+      <c r="Z71" s="134"/>
+      <c r="AA71" s="134"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="132"/>
-      <c r="AG71" s="132"/>
+      <c r="AF71" s="134"/>
+      <c r="AG71" s="134"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -12620,8 +12463,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="143"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="145"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -12642,15 +12485,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="132"/>
-      <c r="Z72" s="132"/>
-      <c r="AA72" s="132"/>
+      <c r="Y72" s="134"/>
+      <c r="Z72" s="134"/>
+      <c r="AA72" s="134"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="132"/>
-      <c r="AG72" s="132"/>
+      <c r="AF72" s="134"/>
+      <c r="AG72" s="134"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -12670,8 +12513,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="143"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="145"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -12692,15 +12535,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="132"/>
-      <c r="Z73" s="132"/>
-      <c r="AA73" s="132"/>
+      <c r="Y73" s="134"/>
+      <c r="Z73" s="134"/>
+      <c r="AA73" s="134"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="132"/>
-      <c r="AG73" s="132"/>
+      <c r="AF73" s="134"/>
+      <c r="AG73" s="134"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -12720,8 +12563,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="143"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="145"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -12742,15 +12585,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="132"/>
-      <c r="Z74" s="132"/>
-      <c r="AA74" s="132"/>
+      <c r="Y74" s="134"/>
+      <c r="Z74" s="134"/>
+      <c r="AA74" s="134"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="132"/>
-      <c r="AG74" s="132"/>
+      <c r="AF74" s="134"/>
+      <c r="AG74" s="134"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -12770,8 +12613,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="143"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="145"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -12792,15 +12635,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="132"/>
-      <c r="Z75" s="132"/>
-      <c r="AA75" s="132"/>
+      <c r="Y75" s="134"/>
+      <c r="Z75" s="134"/>
+      <c r="AA75" s="134"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="132"/>
-      <c r="AG75" s="132"/>
+      <c r="AF75" s="134"/>
+      <c r="AG75" s="134"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -12820,8 +12663,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="143"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="145"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -12842,15 +12685,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="132"/>
-      <c r="Z76" s="132"/>
-      <c r="AA76" s="132"/>
+      <c r="Y76" s="134"/>
+      <c r="Z76" s="134"/>
+      <c r="AA76" s="134"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="132"/>
-      <c r="AG76" s="132"/>
+      <c r="AF76" s="134"/>
+      <c r="AG76" s="134"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -12870,8 +12713,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="143"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -12892,15 +12735,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="132"/>
-      <c r="Z77" s="132"/>
-      <c r="AA77" s="132"/>
+      <c r="Y77" s="134"/>
+      <c r="Z77" s="134"/>
+      <c r="AA77" s="134"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="132"/>
-      <c r="AG77" s="132"/>
+      <c r="AF77" s="134"/>
+      <c r="AG77" s="134"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -12920,8 +12763,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="143"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -12942,15 +12785,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="132"/>
-      <c r="Z78" s="132"/>
-      <c r="AA78" s="132"/>
+      <c r="Y78" s="134"/>
+      <c r="Z78" s="134"/>
+      <c r="AA78" s="134"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="132"/>
-      <c r="AG78" s="132"/>
+      <c r="AF78" s="134"/>
+      <c r="AG78" s="134"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -12970,8 +12813,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="143"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -12992,15 +12835,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="132"/>
-      <c r="Z79" s="132"/>
-      <c r="AA79" s="132"/>
+      <c r="Y79" s="134"/>
+      <c r="Z79" s="134"/>
+      <c r="AA79" s="134"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="132"/>
-      <c r="AG79" s="132"/>
+      <c r="AF79" s="134"/>
+      <c r="AG79" s="134"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13020,8 +12863,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="143"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="145"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13042,15 +12885,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="132"/>
-      <c r="Z80" s="132"/>
-      <c r="AA80" s="132"/>
+      <c r="Y80" s="134"/>
+      <c r="Z80" s="134"/>
+      <c r="AA80" s="134"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="132"/>
-      <c r="AG80" s="132"/>
+      <c r="AF80" s="134"/>
+      <c r="AG80" s="134"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13070,8 +12913,8 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="132"/>
-      <c r="D81" s="143"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="145"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13092,15 +12935,15 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="132"/>
-      <c r="Z81" s="132"/>
-      <c r="AA81" s="132"/>
+      <c r="Y81" s="134"/>
+      <c r="Z81" s="134"/>
+      <c r="AA81" s="134"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
-      <c r="AF81" s="132"/>
-      <c r="AG81" s="132"/>
+      <c r="AF81" s="134"/>
+      <c r="AG81" s="134"/>
       <c r="AH81" s="19"/>
       <c r="AI81" s="19"/>
       <c r="AJ81" s="19"/>
@@ -13171,7 +13014,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13271,7 +13114,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
@@ -13287,7 +13130,7 @@
       <c r="AK84" s="15"/>
       <c r="AL84" s="15"/>
       <c r="AM84" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN84" s="16"/>
       <c r="AO84" s="16"/>
@@ -13317,7 +13160,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13350,7 +13193,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13383,7 +13226,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13445,7 +13288,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13478,7 +13321,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13510,7 +13353,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13541,9 +13384,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
-      <c r="D93" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
@@ -14465,7 +14306,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -14565,7 +14406,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
@@ -14581,7 +14422,7 @@
       <c r="AK124" s="15"/>
       <c r="AL124" s="15"/>
       <c r="AM124" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN124" s="16"/>
       <c r="AO124" s="16"/>
@@ -14627,7 +14468,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14660,7 +14501,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14693,7 +14534,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -14725,7 +14566,7 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="C129" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
@@ -14739,70 +14580,70 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="C130" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E130" s="72"/>
-      <c r="F130" s="72"/>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="K130" s="104"/>
-      <c r="L130" s="104"/>
-      <c r="M130" s="104"/>
-      <c r="N130" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="O130" s="104"/>
-      <c r="P130" s="104"/>
-      <c r="Q130" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="R130" s="72"/>
-      <c r="S130" s="72"/>
-      <c r="T130" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="U130" s="72"/>
-      <c r="V130" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="W130" s="73"/>
-      <c r="X130" s="73"/>
-      <c r="Y130" s="73"/>
-      <c r="Z130" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA130" s="105"/>
-      <c r="AB130" s="105"/>
-      <c r="AC130" s="105"/>
-      <c r="AD130" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE130" s="73"/>
-      <c r="AF130" s="73"/>
-      <c r="AG130" s="73"/>
-      <c r="AH130" s="73"/>
-      <c r="AI130" s="73"/>
-      <c r="AJ130" s="73"/>
-      <c r="AK130" s="73"/>
-      <c r="AL130" s="73"/>
-      <c r="AM130" s="73"/>
-      <c r="AN130" s="73"/>
-      <c r="AO130" s="73"/>
-      <c r="AP130" s="73"/>
-      <c r="AQ130" s="73"/>
-      <c r="AR130" s="73"/>
-      <c r="AS130" s="73"/>
-      <c r="AT130" s="73"/>
-      <c r="AU130" s="73"/>
-      <c r="AV130" s="73"/>
+      <c r="C130" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="K130" s="106"/>
+      <c r="L130" s="106"/>
+      <c r="M130" s="106"/>
+      <c r="N130" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="O130" s="106"/>
+      <c r="P130" s="106"/>
+      <c r="Q130" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="R130" s="74"/>
+      <c r="S130" s="74"/>
+      <c r="T130" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U130" s="74"/>
+      <c r="V130" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="W130" s="75"/>
+      <c r="X130" s="75"/>
+      <c r="Y130" s="75"/>
+      <c r="Z130" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA130" s="107"/>
+      <c r="AB130" s="107"/>
+      <c r="AC130" s="107"/>
+      <c r="AD130" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE130" s="75"/>
+      <c r="AF130" s="75"/>
+      <c r="AG130" s="75"/>
+      <c r="AH130" s="75"/>
+      <c r="AI130" s="75"/>
+      <c r="AJ130" s="75"/>
+      <c r="AK130" s="75"/>
+      <c r="AL130" s="75"/>
+      <c r="AM130" s="75"/>
+      <c r="AN130" s="75"/>
+      <c r="AO130" s="75"/>
+      <c r="AP130" s="75"/>
+      <c r="AQ130" s="75"/>
+      <c r="AR130" s="75"/>
+      <c r="AS130" s="75"/>
+      <c r="AT130" s="75"/>
+      <c r="AU130" s="75"/>
+      <c r="AV130" s="75"/>
       <c r="AW130" s="20"/>
       <c r="AX130" s="1"/>
       <c r="AKN130" s="0"/>
@@ -14857,66 +14698,66 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="C131" s="107" t="n">
+      <c r="C131" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D131" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
-      <c r="G131" s="110"/>
-      <c r="H131" s="110"/>
-      <c r="I131" s="111"/>
-      <c r="J131" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="K131" s="110"/>
-      <c r="L131" s="110"/>
-      <c r="M131" s="110"/>
-      <c r="N131" s="112"/>
-      <c r="O131" s="110" t="n">
+      <c r="D131" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
+      <c r="G131" s="112"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
+      <c r="N131" s="114"/>
+      <c r="O131" s="112" t="n">
         <v>32</v>
       </c>
-      <c r="P131" s="110"/>
-      <c r="Q131" s="112"/>
-      <c r="R131" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="S131" s="113"/>
-      <c r="T131" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U131" s="107"/>
-      <c r="V131" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W131" s="109"/>
-      <c r="X131" s="109"/>
-      <c r="Y131" s="113"/>
-      <c r="Z131" s="114"/>
-      <c r="AA131" s="109"/>
-      <c r="AB131" s="109"/>
-      <c r="AC131" s="109"/>
-      <c r="AD131" s="108"/>
-      <c r="AE131" s="109"/>
-      <c r="AF131" s="109"/>
-      <c r="AG131" s="109"/>
-      <c r="AH131" s="109"/>
-      <c r="AI131" s="109"/>
-      <c r="AJ131" s="109"/>
-      <c r="AK131" s="109"/>
-      <c r="AL131" s="109"/>
-      <c r="AM131" s="109"/>
-      <c r="AN131" s="109"/>
-      <c r="AO131" s="109"/>
-      <c r="AP131" s="109"/>
-      <c r="AQ131" s="109"/>
-      <c r="AR131" s="109"/>
-      <c r="AS131" s="109"/>
-      <c r="AT131" s="109"/>
-      <c r="AU131" s="109"/>
-      <c r="AV131" s="115"/>
+      <c r="P131" s="112"/>
+      <c r="Q131" s="114"/>
+      <c r="R131" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="S131" s="115"/>
+      <c r="T131" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U131" s="109"/>
+      <c r="V131" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W131" s="111"/>
+      <c r="X131" s="111"/>
+      <c r="Y131" s="115"/>
+      <c r="Z131" s="116"/>
+      <c r="AA131" s="111"/>
+      <c r="AB131" s="111"/>
+      <c r="AC131" s="111"/>
+      <c r="AD131" s="110"/>
+      <c r="AE131" s="111"/>
+      <c r="AF131" s="111"/>
+      <c r="AG131" s="111"/>
+      <c r="AH131" s="111"/>
+      <c r="AI131" s="111"/>
+      <c r="AJ131" s="111"/>
+      <c r="AK131" s="111"/>
+      <c r="AL131" s="111"/>
+      <c r="AM131" s="111"/>
+      <c r="AN131" s="111"/>
+      <c r="AO131" s="111"/>
+      <c r="AP131" s="111"/>
+      <c r="AQ131" s="111"/>
+      <c r="AR131" s="111"/>
+      <c r="AS131" s="111"/>
+      <c r="AT131" s="111"/>
+      <c r="AU131" s="111"/>
+      <c r="AV131" s="117"/>
       <c r="AW131" s="20"/>
       <c r="AX131" s="1"/>
       <c r="AKN131" s="0"/>
@@ -14971,64 +14812,64 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="C132" s="117" t="n">
+      <c r="C132" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="E132" s="119"/>
-      <c r="F132" s="119"/>
-      <c r="G132" s="120"/>
-      <c r="H132" s="120"/>
-      <c r="I132" s="121"/>
-      <c r="J132" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="K132" s="120"/>
-      <c r="L132" s="120"/>
-      <c r="M132" s="120"/>
-      <c r="N132" s="122"/>
-      <c r="O132" s="120"/>
-      <c r="P132" s="120"/>
-      <c r="Q132" s="122"/>
-      <c r="R132" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="S132" s="123"/>
-      <c r="T132" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U132" s="107"/>
-      <c r="V132" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W132" s="119"/>
-      <c r="X132" s="119"/>
-      <c r="Y132" s="123"/>
-      <c r="Z132" s="124"/>
-      <c r="AA132" s="119"/>
-      <c r="AB132" s="119"/>
-      <c r="AC132" s="119"/>
-      <c r="AD132" s="118"/>
-      <c r="AE132" s="119"/>
-      <c r="AF132" s="119"/>
-      <c r="AG132" s="119"/>
-      <c r="AH132" s="119"/>
-      <c r="AI132" s="119"/>
-      <c r="AJ132" s="119"/>
-      <c r="AK132" s="119"/>
-      <c r="AL132" s="119"/>
-      <c r="AM132" s="119"/>
-      <c r="AN132" s="119"/>
-      <c r="AO132" s="119"/>
-      <c r="AP132" s="119"/>
-      <c r="AQ132" s="119"/>
-      <c r="AR132" s="119"/>
-      <c r="AS132" s="119"/>
-      <c r="AT132" s="119"/>
-      <c r="AU132" s="119"/>
-      <c r="AV132" s="125"/>
+      <c r="D132" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132" s="121"/>
+      <c r="F132" s="121"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="123"/>
+      <c r="J132" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="124"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="122"/>
+      <c r="Q132" s="124"/>
+      <c r="R132" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="S132" s="125"/>
+      <c r="T132" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U132" s="109"/>
+      <c r="V132" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W132" s="121"/>
+      <c r="X132" s="121"/>
+      <c r="Y132" s="125"/>
+      <c r="Z132" s="126"/>
+      <c r="AA132" s="121"/>
+      <c r="AB132" s="121"/>
+      <c r="AC132" s="121"/>
+      <c r="AD132" s="120"/>
+      <c r="AE132" s="121"/>
+      <c r="AF132" s="121"/>
+      <c r="AG132" s="121"/>
+      <c r="AH132" s="121"/>
+      <c r="AI132" s="121"/>
+      <c r="AJ132" s="121"/>
+      <c r="AK132" s="121"/>
+      <c r="AL132" s="121"/>
+      <c r="AM132" s="121"/>
+      <c r="AN132" s="121"/>
+      <c r="AO132" s="121"/>
+      <c r="AP132" s="121"/>
+      <c r="AQ132" s="121"/>
+      <c r="AR132" s="121"/>
+      <c r="AS132" s="121"/>
+      <c r="AT132" s="121"/>
+      <c r="AU132" s="121"/>
+      <c r="AV132" s="127"/>
       <c r="AW132" s="20"/>
       <c r="AX132" s="1"/>
       <c r="AKN132" s="0"/>
@@ -15083,64 +14924,64 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="C133" s="117" t="n">
+      <c r="C133" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="D133" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="119"/>
-      <c r="G133" s="120"/>
-      <c r="H133" s="120"/>
-      <c r="I133" s="121"/>
-      <c r="J133" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="K133" s="120"/>
-      <c r="L133" s="120"/>
-      <c r="M133" s="120"/>
-      <c r="N133" s="122"/>
-      <c r="O133" s="120"/>
-      <c r="P133" s="120"/>
-      <c r="Q133" s="122"/>
-      <c r="R133" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="S133" s="123"/>
-      <c r="T133" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U133" s="107"/>
-      <c r="V133" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W133" s="119"/>
-      <c r="X133" s="119"/>
-      <c r="Y133" s="123"/>
-      <c r="Z133" s="126"/>
-      <c r="AA133" s="119"/>
-      <c r="AB133" s="119"/>
-      <c r="AC133" s="119"/>
-      <c r="AD133" s="118"/>
-      <c r="AE133" s="119"/>
-      <c r="AF133" s="119"/>
-      <c r="AG133" s="119"/>
-      <c r="AH133" s="119"/>
-      <c r="AI133" s="119"/>
-      <c r="AJ133" s="119"/>
-      <c r="AK133" s="119"/>
-      <c r="AL133" s="119"/>
-      <c r="AM133" s="119"/>
-      <c r="AN133" s="119"/>
-      <c r="AO133" s="119"/>
-      <c r="AP133" s="119"/>
-      <c r="AQ133" s="119"/>
-      <c r="AR133" s="119"/>
-      <c r="AS133" s="119"/>
-      <c r="AT133" s="119"/>
-      <c r="AU133" s="119"/>
-      <c r="AV133" s="125"/>
+      <c r="D133" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E133" s="121"/>
+      <c r="F133" s="121"/>
+      <c r="G133" s="122"/>
+      <c r="H133" s="122"/>
+      <c r="I133" s="123"/>
+      <c r="J133" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="K133" s="122"/>
+      <c r="L133" s="122"/>
+      <c r="M133" s="122"/>
+      <c r="N133" s="124"/>
+      <c r="O133" s="122"/>
+      <c r="P133" s="122"/>
+      <c r="Q133" s="124"/>
+      <c r="R133" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="S133" s="125"/>
+      <c r="T133" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U133" s="109"/>
+      <c r="V133" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W133" s="121"/>
+      <c r="X133" s="121"/>
+      <c r="Y133" s="125"/>
+      <c r="Z133" s="128"/>
+      <c r="AA133" s="121"/>
+      <c r="AB133" s="121"/>
+      <c r="AC133" s="121"/>
+      <c r="AD133" s="120"/>
+      <c r="AE133" s="121"/>
+      <c r="AF133" s="121"/>
+      <c r="AG133" s="121"/>
+      <c r="AH133" s="121"/>
+      <c r="AI133" s="121"/>
+      <c r="AJ133" s="121"/>
+      <c r="AK133" s="121"/>
+      <c r="AL133" s="121"/>
+      <c r="AM133" s="121"/>
+      <c r="AN133" s="121"/>
+      <c r="AO133" s="121"/>
+      <c r="AP133" s="121"/>
+      <c r="AQ133" s="121"/>
+      <c r="AR133" s="121"/>
+      <c r="AS133" s="121"/>
+      <c r="AT133" s="121"/>
+      <c r="AU133" s="121"/>
+      <c r="AV133" s="127"/>
       <c r="AW133" s="20"/>
       <c r="AX133" s="1"/>
       <c r="AKN133" s="0"/>
@@ -15195,52 +15036,52 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="128"/>
-      <c r="F134" s="128"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="129"/>
-      <c r="I134" s="129"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="129"/>
-      <c r="L134" s="129"/>
-      <c r="M134" s="129"/>
-      <c r="N134" s="129"/>
-      <c r="O134" s="129"/>
-      <c r="P134" s="129"/>
-      <c r="Q134" s="129"/>
-      <c r="R134" s="129"/>
-      <c r="S134" s="128"/>
-      <c r="T134" s="127"/>
-      <c r="U134" s="130"/>
-      <c r="V134" s="128"/>
-      <c r="W134" s="128"/>
-      <c r="X134" s="128"/>
-      <c r="Y134" s="128"/>
-      <c r="Z134" s="127"/>
-      <c r="AA134" s="128"/>
-      <c r="AB134" s="128"/>
-      <c r="AC134" s="128"/>
-      <c r="AD134" s="128"/>
-      <c r="AE134" s="128"/>
-      <c r="AF134" s="128"/>
-      <c r="AG134" s="128"/>
-      <c r="AH134" s="128"/>
-      <c r="AI134" s="128"/>
-      <c r="AJ134" s="128"/>
-      <c r="AK134" s="128"/>
-      <c r="AL134" s="128"/>
-      <c r="AM134" s="128"/>
-      <c r="AN134" s="128"/>
-      <c r="AO134" s="128"/>
-      <c r="AP134" s="128"/>
-      <c r="AQ134" s="128"/>
-      <c r="AR134" s="128"/>
-      <c r="AS134" s="128"/>
-      <c r="AT134" s="128"/>
-      <c r="AU134" s="128"/>
-      <c r="AV134" s="131"/>
+      <c r="C134" s="129"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="130"/>
+      <c r="F134" s="130"/>
+      <c r="G134" s="131"/>
+      <c r="H134" s="131"/>
+      <c r="I134" s="131"/>
+      <c r="J134" s="131"/>
+      <c r="K134" s="131"/>
+      <c r="L134" s="131"/>
+      <c r="M134" s="131"/>
+      <c r="N134" s="131"/>
+      <c r="O134" s="131"/>
+      <c r="P134" s="131"/>
+      <c r="Q134" s="131"/>
+      <c r="R134" s="131"/>
+      <c r="S134" s="130"/>
+      <c r="T134" s="129"/>
+      <c r="U134" s="132"/>
+      <c r="V134" s="130"/>
+      <c r="W134" s="130"/>
+      <c r="X134" s="130"/>
+      <c r="Y134" s="130"/>
+      <c r="Z134" s="129"/>
+      <c r="AA134" s="130"/>
+      <c r="AB134" s="130"/>
+      <c r="AC134" s="130"/>
+      <c r="AD134" s="130"/>
+      <c r="AE134" s="130"/>
+      <c r="AF134" s="130"/>
+      <c r="AG134" s="130"/>
+      <c r="AH134" s="130"/>
+      <c r="AI134" s="130"/>
+      <c r="AJ134" s="130"/>
+      <c r="AK134" s="130"/>
+      <c r="AL134" s="130"/>
+      <c r="AM134" s="130"/>
+      <c r="AN134" s="130"/>
+      <c r="AO134" s="130"/>
+      <c r="AP134" s="130"/>
+      <c r="AQ134" s="130"/>
+      <c r="AR134" s="130"/>
+      <c r="AS134" s="130"/>
+      <c r="AT134" s="130"/>
+      <c r="AU134" s="130"/>
+      <c r="AV134" s="133"/>
       <c r="AW134" s="20"/>
       <c r="AX134" s="1"/>
       <c r="AKN134" s="0"/>
@@ -15296,7 +15137,7 @@
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
       <c r="C135" s="19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
@@ -15317,16 +15158,16 @@
       <c r="T135" s="19"/>
       <c r="U135" s="19"/>
       <c r="V135" s="19"/>
-      <c r="W135" s="132"/>
-      <c r="X135" s="132"/>
-      <c r="Y135" s="132"/>
-      <c r="Z135" s="132"/>
+      <c r="W135" s="134"/>
+      <c r="X135" s="134"/>
+      <c r="Y135" s="134"/>
+      <c r="Z135" s="134"/>
       <c r="AA135" s="19"/>
       <c r="AB135" s="19"/>
       <c r="AC135" s="19"/>
       <c r="AD135" s="19"/>
-      <c r="AE135" s="132"/>
-      <c r="AF135" s="132"/>
+      <c r="AE135" s="134"/>
+      <c r="AF135" s="134"/>
       <c r="AG135" s="19"/>
       <c r="AH135" s="19"/>
       <c r="AI135" s="19"/>
@@ -15396,60 +15237,60 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="C136" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="O136" s="134"/>
-      <c r="P136" s="134"/>
-      <c r="Q136" s="134"/>
-      <c r="R136" s="134"/>
-      <c r="S136" s="134"/>
-      <c r="T136" s="134"/>
-      <c r="U136" s="134"/>
-      <c r="V136" s="134"/>
-      <c r="W136" s="134"/>
-      <c r="X136" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y136" s="73"/>
-      <c r="Z136" s="73"/>
-      <c r="AA136" s="73"/>
-      <c r="AB136" s="73"/>
-      <c r="AC136" s="73"/>
-      <c r="AD136" s="73"/>
-      <c r="AE136" s="73"/>
-      <c r="AF136" s="73"/>
-      <c r="AG136" s="73"/>
-      <c r="AH136" s="73"/>
-      <c r="AI136" s="73"/>
-      <c r="AJ136" s="73"/>
-      <c r="AK136" s="73"/>
-      <c r="AL136" s="73"/>
-      <c r="AM136" s="73"/>
-      <c r="AN136" s="73"/>
-      <c r="AO136" s="73"/>
-      <c r="AP136" s="73"/>
-      <c r="AQ136" s="73"/>
-      <c r="AR136" s="73"/>
-      <c r="AS136" s="73"/>
-      <c r="AT136" s="73"/>
-      <c r="AU136" s="73"/>
-      <c r="AV136" s="73"/>
+      <c r="C136" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="74"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="O136" s="136"/>
+      <c r="P136" s="136"/>
+      <c r="Q136" s="136"/>
+      <c r="R136" s="136"/>
+      <c r="S136" s="136"/>
+      <c r="T136" s="136"/>
+      <c r="U136" s="136"/>
+      <c r="V136" s="136"/>
+      <c r="W136" s="136"/>
+      <c r="X136" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y136" s="75"/>
+      <c r="Z136" s="75"/>
+      <c r="AA136" s="75"/>
+      <c r="AB136" s="75"/>
+      <c r="AC136" s="75"/>
+      <c r="AD136" s="75"/>
+      <c r="AE136" s="75"/>
+      <c r="AF136" s="75"/>
+      <c r="AG136" s="75"/>
+      <c r="AH136" s="75"/>
+      <c r="AI136" s="75"/>
+      <c r="AJ136" s="75"/>
+      <c r="AK136" s="75"/>
+      <c r="AL136" s="75"/>
+      <c r="AM136" s="75"/>
+      <c r="AN136" s="75"/>
+      <c r="AO136" s="75"/>
+      <c r="AP136" s="75"/>
+      <c r="AQ136" s="75"/>
+      <c r="AR136" s="75"/>
+      <c r="AS136" s="75"/>
+      <c r="AT136" s="75"/>
+      <c r="AU136" s="75"/>
+      <c r="AV136" s="75"/>
       <c r="AW136" s="20"/>
       <c r="AX136" s="1"/>
       <c r="AKN136" s="0"/>
@@ -15504,58 +15345,58 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="C137" s="135" t="n">
+      <c r="C137" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="D137" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="E137" s="137"/>
-      <c r="F137" s="137"/>
-      <c r="G137" s="137"/>
-      <c r="H137" s="137"/>
-      <c r="I137" s="137"/>
-      <c r="J137" s="137"/>
-      <c r="K137" s="137"/>
-      <c r="L137" s="137"/>
-      <c r="M137" s="138"/>
-      <c r="N137" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="O137" s="137"/>
-      <c r="P137" s="137"/>
-      <c r="Q137" s="137"/>
-      <c r="R137" s="137"/>
-      <c r="S137" s="137"/>
-      <c r="T137" s="137"/>
-      <c r="U137" s="137"/>
-      <c r="V137" s="137"/>
-      <c r="W137" s="138"/>
-      <c r="X137" s="136"/>
-      <c r="Y137" s="139"/>
-      <c r="Z137" s="139"/>
-      <c r="AA137" s="139"/>
-      <c r="AB137" s="137"/>
-      <c r="AC137" s="137"/>
-      <c r="AD137" s="137"/>
-      <c r="AE137" s="137"/>
-      <c r="AF137" s="139"/>
-      <c r="AG137" s="139"/>
-      <c r="AH137" s="137"/>
-      <c r="AI137" s="137"/>
-      <c r="AJ137" s="137"/>
-      <c r="AK137" s="137"/>
-      <c r="AL137" s="137"/>
-      <c r="AM137" s="137"/>
-      <c r="AN137" s="137"/>
-      <c r="AO137" s="137"/>
-      <c r="AP137" s="137"/>
-      <c r="AQ137" s="137"/>
-      <c r="AR137" s="137"/>
-      <c r="AS137" s="137"/>
-      <c r="AT137" s="137"/>
-      <c r="AU137" s="137"/>
-      <c r="AV137" s="138"/>
+      <c r="D137" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E137" s="139"/>
+      <c r="F137" s="139"/>
+      <c r="G137" s="139"/>
+      <c r="H137" s="139"/>
+      <c r="I137" s="139"/>
+      <c r="J137" s="139"/>
+      <c r="K137" s="139"/>
+      <c r="L137" s="139"/>
+      <c r="M137" s="140"/>
+      <c r="N137" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="O137" s="139"/>
+      <c r="P137" s="139"/>
+      <c r="Q137" s="139"/>
+      <c r="R137" s="139"/>
+      <c r="S137" s="139"/>
+      <c r="T137" s="139"/>
+      <c r="U137" s="139"/>
+      <c r="V137" s="139"/>
+      <c r="W137" s="140"/>
+      <c r="X137" s="138"/>
+      <c r="Y137" s="141"/>
+      <c r="Z137" s="141"/>
+      <c r="AA137" s="141"/>
+      <c r="AB137" s="139"/>
+      <c r="AC137" s="139"/>
+      <c r="AD137" s="139"/>
+      <c r="AE137" s="139"/>
+      <c r="AF137" s="141"/>
+      <c r="AG137" s="141"/>
+      <c r="AH137" s="139"/>
+      <c r="AI137" s="139"/>
+      <c r="AJ137" s="139"/>
+      <c r="AK137" s="139"/>
+      <c r="AL137" s="139"/>
+      <c r="AM137" s="139"/>
+      <c r="AN137" s="139"/>
+      <c r="AO137" s="139"/>
+      <c r="AP137" s="139"/>
+      <c r="AQ137" s="139"/>
+      <c r="AR137" s="139"/>
+      <c r="AS137" s="139"/>
+      <c r="AT137" s="139"/>
+      <c r="AU137" s="139"/>
+      <c r="AV137" s="140"/>
       <c r="AW137" s="20"/>
       <c r="AX137" s="1"/>
       <c r="AKN137" s="0"/>
@@ -15711,7 +15552,7 @@
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
       <c r="C139" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
@@ -15732,16 +15573,16 @@
       <c r="T139" s="19"/>
       <c r="U139" s="19"/>
       <c r="V139" s="19"/>
-      <c r="W139" s="132"/>
-      <c r="X139" s="132"/>
-      <c r="Y139" s="132"/>
-      <c r="Z139" s="132"/>
+      <c r="W139" s="134"/>
+      <c r="X139" s="134"/>
+      <c r="Y139" s="134"/>
+      <c r="Z139" s="134"/>
       <c r="AA139" s="19"/>
       <c r="AB139" s="19"/>
       <c r="AC139" s="19"/>
       <c r="AD139" s="19"/>
-      <c r="AE139" s="132"/>
-      <c r="AF139" s="132"/>
+      <c r="AE139" s="134"/>
+      <c r="AF139" s="134"/>
       <c r="AG139" s="19"/>
       <c r="AH139" s="19"/>
       <c r="AI139" s="19"/>
@@ -15811,60 +15652,60 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="C140" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D140" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="72"/>
-      <c r="I140" s="72"/>
-      <c r="J140" s="72"/>
-      <c r="K140" s="72"/>
-      <c r="L140" s="72"/>
-      <c r="M140" s="72"/>
-      <c r="N140" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="O140" s="134"/>
-      <c r="P140" s="134"/>
-      <c r="Q140" s="134"/>
-      <c r="R140" s="134"/>
-      <c r="S140" s="134"/>
-      <c r="T140" s="134"/>
-      <c r="U140" s="134"/>
-      <c r="V140" s="134"/>
-      <c r="W140" s="134"/>
-      <c r="X140" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y140" s="73"/>
-      <c r="Z140" s="73"/>
-      <c r="AA140" s="73"/>
-      <c r="AB140" s="73"/>
-      <c r="AC140" s="73"/>
-      <c r="AD140" s="73"/>
-      <c r="AE140" s="73"/>
-      <c r="AF140" s="73"/>
-      <c r="AG140" s="73"/>
-      <c r="AH140" s="73"/>
-      <c r="AI140" s="73"/>
-      <c r="AJ140" s="73"/>
-      <c r="AK140" s="73"/>
-      <c r="AL140" s="73"/>
-      <c r="AM140" s="73"/>
-      <c r="AN140" s="73"/>
-      <c r="AO140" s="73"/>
-      <c r="AP140" s="73"/>
-      <c r="AQ140" s="73"/>
-      <c r="AR140" s="73"/>
-      <c r="AS140" s="73"/>
-      <c r="AT140" s="73"/>
-      <c r="AU140" s="73"/>
-      <c r="AV140" s="73"/>
+      <c r="C140" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="74"/>
+      <c r="K140" s="74"/>
+      <c r="L140" s="74"/>
+      <c r="M140" s="74"/>
+      <c r="N140" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="O140" s="136"/>
+      <c r="P140" s="136"/>
+      <c r="Q140" s="136"/>
+      <c r="R140" s="136"/>
+      <c r="S140" s="136"/>
+      <c r="T140" s="136"/>
+      <c r="U140" s="136"/>
+      <c r="V140" s="136"/>
+      <c r="W140" s="136"/>
+      <c r="X140" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y140" s="75"/>
+      <c r="Z140" s="75"/>
+      <c r="AA140" s="75"/>
+      <c r="AB140" s="75"/>
+      <c r="AC140" s="75"/>
+      <c r="AD140" s="75"/>
+      <c r="AE140" s="75"/>
+      <c r="AF140" s="75"/>
+      <c r="AG140" s="75"/>
+      <c r="AH140" s="75"/>
+      <c r="AI140" s="75"/>
+      <c r="AJ140" s="75"/>
+      <c r="AK140" s="75"/>
+      <c r="AL140" s="75"/>
+      <c r="AM140" s="75"/>
+      <c r="AN140" s="75"/>
+      <c r="AO140" s="75"/>
+      <c r="AP140" s="75"/>
+      <c r="AQ140" s="75"/>
+      <c r="AR140" s="75"/>
+      <c r="AS140" s="75"/>
+      <c r="AT140" s="75"/>
+      <c r="AU140" s="75"/>
+      <c r="AV140" s="75"/>
       <c r="AW140" s="20"/>
       <c r="AX140" s="1"/>
       <c r="AKN140" s="0"/>
@@ -15919,58 +15760,58 @@
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="C141" s="144" t="n">
+      <c r="C141" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="D141" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E141" s="97"/>
-      <c r="F141" s="97"/>
-      <c r="G141" s="97"/>
-      <c r="H141" s="97"/>
-      <c r="I141" s="97"/>
-      <c r="J141" s="97"/>
-      <c r="K141" s="97"/>
-      <c r="L141" s="97"/>
-      <c r="M141" s="146"/>
-      <c r="N141" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O141" s="148"/>
-      <c r="P141" s="148"/>
-      <c r="Q141" s="148"/>
-      <c r="R141" s="148"/>
-      <c r="S141" s="148"/>
-      <c r="T141" s="148"/>
-      <c r="U141" s="148"/>
-      <c r="V141" s="148"/>
-      <c r="W141" s="149"/>
-      <c r="X141" s="147"/>
-      <c r="Y141" s="150"/>
-      <c r="Z141" s="150"/>
-      <c r="AA141" s="150"/>
-      <c r="AB141" s="148"/>
-      <c r="AC141" s="148"/>
-      <c r="AD141" s="148"/>
-      <c r="AE141" s="148"/>
-      <c r="AF141" s="150"/>
-      <c r="AG141" s="150"/>
-      <c r="AH141" s="148"/>
-      <c r="AI141" s="148"/>
-      <c r="AJ141" s="148"/>
-      <c r="AK141" s="148"/>
-      <c r="AL141" s="148"/>
-      <c r="AM141" s="148"/>
-      <c r="AN141" s="148"/>
-      <c r="AO141" s="148"/>
-      <c r="AP141" s="148"/>
-      <c r="AQ141" s="148"/>
-      <c r="AR141" s="148"/>
-      <c r="AS141" s="148"/>
-      <c r="AT141" s="148"/>
-      <c r="AU141" s="148"/>
-      <c r="AV141" s="149"/>
+      <c r="D141" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="99"/>
+      <c r="F141" s="99"/>
+      <c r="G141" s="99"/>
+      <c r="H141" s="99"/>
+      <c r="I141" s="99"/>
+      <c r="J141" s="99"/>
+      <c r="K141" s="99"/>
+      <c r="L141" s="99"/>
+      <c r="M141" s="148"/>
+      <c r="N141" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O141" s="150"/>
+      <c r="P141" s="150"/>
+      <c r="Q141" s="150"/>
+      <c r="R141" s="150"/>
+      <c r="S141" s="150"/>
+      <c r="T141" s="150"/>
+      <c r="U141" s="150"/>
+      <c r="V141" s="150"/>
+      <c r="W141" s="151"/>
+      <c r="X141" s="149"/>
+      <c r="Y141" s="152"/>
+      <c r="Z141" s="152"/>
+      <c r="AA141" s="152"/>
+      <c r="AB141" s="150"/>
+      <c r="AC141" s="150"/>
+      <c r="AD141" s="150"/>
+      <c r="AE141" s="150"/>
+      <c r="AF141" s="152"/>
+      <c r="AG141" s="152"/>
+      <c r="AH141" s="150"/>
+      <c r="AI141" s="150"/>
+      <c r="AJ141" s="150"/>
+      <c r="AK141" s="150"/>
+      <c r="AL141" s="150"/>
+      <c r="AM141" s="150"/>
+      <c r="AN141" s="150"/>
+      <c r="AO141" s="150"/>
+      <c r="AP141" s="150"/>
+      <c r="AQ141" s="150"/>
+      <c r="AR141" s="150"/>
+      <c r="AS141" s="150"/>
+      <c r="AT141" s="150"/>
+      <c r="AU141" s="150"/>
+      <c r="AV141" s="151"/>
       <c r="AW141" s="20"/>
       <c r="AX141" s="1"/>
       <c r="AKN141" s="0"/>
@@ -16025,170 +15866,170 @@
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="C142" s="151" t="n">
+      <c r="C142" s="153" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="E142" s="153"/>
-      <c r="F142" s="153"/>
-      <c r="G142" s="153"/>
-      <c r="H142" s="153"/>
-      <c r="I142" s="153"/>
-      <c r="J142" s="153"/>
-      <c r="K142" s="153"/>
-      <c r="L142" s="153"/>
-      <c r="M142" s="154"/>
-      <c r="N142" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O142" s="153"/>
-      <c r="P142" s="153"/>
-      <c r="Q142" s="153"/>
-      <c r="R142" s="153"/>
-      <c r="S142" s="153"/>
-      <c r="T142" s="153"/>
-      <c r="U142" s="153"/>
-      <c r="V142" s="153"/>
-      <c r="W142" s="154"/>
-      <c r="X142" s="152"/>
-      <c r="Y142" s="155"/>
-      <c r="Z142" s="155"/>
-      <c r="AA142" s="155"/>
-      <c r="AB142" s="153"/>
-      <c r="AC142" s="153"/>
-      <c r="AD142" s="153"/>
-      <c r="AE142" s="153"/>
-      <c r="AF142" s="155"/>
-      <c r="AG142" s="155"/>
-      <c r="AH142" s="153"/>
-      <c r="AI142" s="153"/>
-      <c r="AJ142" s="153"/>
-      <c r="AK142" s="153"/>
-      <c r="AL142" s="153"/>
-      <c r="AM142" s="153"/>
-      <c r="AN142" s="153"/>
-      <c r="AO142" s="153"/>
-      <c r="AP142" s="153"/>
-      <c r="AQ142" s="153"/>
-      <c r="AR142" s="153"/>
-      <c r="AS142" s="153"/>
-      <c r="AT142" s="153"/>
-      <c r="AU142" s="153"/>
-      <c r="AV142" s="154"/>
+      <c r="D142" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
+      <c r="H142" s="155"/>
+      <c r="I142" s="155"/>
+      <c r="J142" s="155"/>
+      <c r="K142" s="155"/>
+      <c r="L142" s="155"/>
+      <c r="M142" s="156"/>
+      <c r="N142" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O142" s="155"/>
+      <c r="P142" s="155"/>
+      <c r="Q142" s="155"/>
+      <c r="R142" s="155"/>
+      <c r="S142" s="155"/>
+      <c r="T142" s="155"/>
+      <c r="U142" s="155"/>
+      <c r="V142" s="155"/>
+      <c r="W142" s="156"/>
+      <c r="X142" s="154"/>
+      <c r="Y142" s="157"/>
+      <c r="Z142" s="157"/>
+      <c r="AA142" s="157"/>
+      <c r="AB142" s="155"/>
+      <c r="AC142" s="155"/>
+      <c r="AD142" s="155"/>
+      <c r="AE142" s="155"/>
+      <c r="AF142" s="157"/>
+      <c r="AG142" s="157"/>
+      <c r="AH142" s="155"/>
+      <c r="AI142" s="155"/>
+      <c r="AJ142" s="155"/>
+      <c r="AK142" s="155"/>
+      <c r="AL142" s="155"/>
+      <c r="AM142" s="155"/>
+      <c r="AN142" s="155"/>
+      <c r="AO142" s="155"/>
+      <c r="AP142" s="155"/>
+      <c r="AQ142" s="155"/>
+      <c r="AR142" s="155"/>
+      <c r="AS142" s="155"/>
+      <c r="AT142" s="155"/>
+      <c r="AU142" s="155"/>
+      <c r="AV142" s="156"/>
       <c r="AW142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="C143" s="151" t="n">
+      <c r="C143" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="D143" s="156" t="s">
+      <c r="D143" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="E143" s="159"/>
+      <c r="F143" s="159"/>
+      <c r="G143" s="159"/>
+      <c r="H143" s="159"/>
+      <c r="I143" s="159"/>
+      <c r="J143" s="159"/>
+      <c r="K143" s="159"/>
+      <c r="L143" s="159"/>
+      <c r="M143" s="160"/>
+      <c r="N143" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="E143" s="157"/>
-      <c r="F143" s="157"/>
-      <c r="G143" s="157"/>
-      <c r="H143" s="157"/>
-      <c r="I143" s="157"/>
-      <c r="J143" s="157"/>
-      <c r="K143" s="157"/>
-      <c r="L143" s="157"/>
-      <c r="M143" s="158"/>
-      <c r="N143" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O143" s="159"/>
-      <c r="P143" s="159"/>
-      <c r="Q143" s="159"/>
-      <c r="R143" s="159"/>
-      <c r="S143" s="159"/>
-      <c r="T143" s="159"/>
-      <c r="U143" s="159"/>
-      <c r="V143" s="159"/>
-      <c r="W143" s="160"/>
-      <c r="X143" s="161"/>
-      <c r="Y143" s="162"/>
-      <c r="Z143" s="162"/>
-      <c r="AA143" s="162"/>
-      <c r="AB143" s="159"/>
-      <c r="AC143" s="159"/>
-      <c r="AD143" s="159"/>
-      <c r="AE143" s="159"/>
-      <c r="AF143" s="162"/>
-      <c r="AG143" s="162"/>
-      <c r="AH143" s="159"/>
-      <c r="AI143" s="159"/>
-      <c r="AJ143" s="159"/>
-      <c r="AK143" s="159"/>
-      <c r="AL143" s="159"/>
-      <c r="AM143" s="159"/>
-      <c r="AN143" s="159"/>
-      <c r="AO143" s="159"/>
-      <c r="AP143" s="159"/>
-      <c r="AQ143" s="159"/>
-      <c r="AR143" s="159"/>
-      <c r="AS143" s="159"/>
-      <c r="AT143" s="159"/>
-      <c r="AU143" s="159"/>
-      <c r="AV143" s="163"/>
+      <c r="O143" s="161"/>
+      <c r="P143" s="161"/>
+      <c r="Q143" s="161"/>
+      <c r="R143" s="161"/>
+      <c r="S143" s="161"/>
+      <c r="T143" s="161"/>
+      <c r="U143" s="161"/>
+      <c r="V143" s="161"/>
+      <c r="W143" s="162"/>
+      <c r="X143" s="163"/>
+      <c r="Y143" s="164"/>
+      <c r="Z143" s="164"/>
+      <c r="AA143" s="164"/>
+      <c r="AB143" s="161"/>
+      <c r="AC143" s="161"/>
+      <c r="AD143" s="161"/>
+      <c r="AE143" s="161"/>
+      <c r="AF143" s="164"/>
+      <c r="AG143" s="164"/>
+      <c r="AH143" s="161"/>
+      <c r="AI143" s="161"/>
+      <c r="AJ143" s="161"/>
+      <c r="AK143" s="161"/>
+      <c r="AL143" s="161"/>
+      <c r="AM143" s="161"/>
+      <c r="AN143" s="161"/>
+      <c r="AO143" s="161"/>
+      <c r="AP143" s="161"/>
+      <c r="AQ143" s="161"/>
+      <c r="AR143" s="161"/>
+      <c r="AS143" s="161"/>
+      <c r="AT143" s="161"/>
+      <c r="AU143" s="161"/>
+      <c r="AV143" s="165"/>
       <c r="AW143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="C144" s="151" t="n">
+      <c r="C144" s="153" t="n">
         <v>4</v>
       </c>
-      <c r="D144" s="156" t="s">
-        <v>90</v>
-      </c>
-      <c r="E144" s="157"/>
-      <c r="F144" s="157"/>
-      <c r="G144" s="157"/>
-      <c r="H144" s="157"/>
-      <c r="I144" s="157"/>
-      <c r="J144" s="157"/>
-      <c r="K144" s="157"/>
-      <c r="L144" s="157"/>
-      <c r="M144" s="158"/>
-      <c r="N144" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="O144" s="159"/>
-      <c r="P144" s="159"/>
-      <c r="Q144" s="159"/>
-      <c r="R144" s="159"/>
-      <c r="S144" s="159"/>
-      <c r="T144" s="159"/>
-      <c r="U144" s="159"/>
-      <c r="V144" s="159"/>
-      <c r="W144" s="160"/>
-      <c r="X144" s="161"/>
-      <c r="Y144" s="162"/>
-      <c r="Z144" s="162"/>
-      <c r="AA144" s="162"/>
-      <c r="AB144" s="159"/>
-      <c r="AC144" s="159"/>
-      <c r="AD144" s="159"/>
-      <c r="AE144" s="159"/>
-      <c r="AF144" s="162"/>
-      <c r="AG144" s="162"/>
-      <c r="AH144" s="159"/>
-      <c r="AI144" s="159"/>
-      <c r="AJ144" s="159"/>
-      <c r="AK144" s="159"/>
-      <c r="AL144" s="159"/>
-      <c r="AM144" s="159"/>
-      <c r="AN144" s="159"/>
-      <c r="AO144" s="159"/>
-      <c r="AP144" s="159"/>
-      <c r="AQ144" s="159"/>
-      <c r="AR144" s="159"/>
-      <c r="AS144" s="159"/>
-      <c r="AT144" s="159"/>
-      <c r="AU144" s="159"/>
-      <c r="AV144" s="163"/>
+      <c r="D144" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="E144" s="159"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="159"/>
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="159"/>
+      <c r="L144" s="159"/>
+      <c r="M144" s="160"/>
+      <c r="N144" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="O144" s="161"/>
+      <c r="P144" s="161"/>
+      <c r="Q144" s="161"/>
+      <c r="R144" s="161"/>
+      <c r="S144" s="161"/>
+      <c r="T144" s="161"/>
+      <c r="U144" s="161"/>
+      <c r="V144" s="161"/>
+      <c r="W144" s="162"/>
+      <c r="X144" s="163"/>
+      <c r="Y144" s="164"/>
+      <c r="Z144" s="164"/>
+      <c r="AA144" s="164"/>
+      <c r="AB144" s="161"/>
+      <c r="AC144" s="161"/>
+      <c r="AD144" s="161"/>
+      <c r="AE144" s="161"/>
+      <c r="AF144" s="164"/>
+      <c r="AG144" s="164"/>
+      <c r="AH144" s="161"/>
+      <c r="AI144" s="161"/>
+      <c r="AJ144" s="161"/>
+      <c r="AK144" s="161"/>
+      <c r="AL144" s="161"/>
+      <c r="AM144" s="161"/>
+      <c r="AN144" s="161"/>
+      <c r="AO144" s="161"/>
+      <c r="AP144" s="161"/>
+      <c r="AQ144" s="161"/>
+      <c r="AR144" s="161"/>
+      <c r="AS144" s="161"/>
+      <c r="AT144" s="161"/>
+      <c r="AU144" s="161"/>
+      <c r="AV144" s="165"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16244,7 +16085,7 @@
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
       <c r="C146" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
@@ -16280,12 +16121,12 @@
       <c r="AU146" s="0"/>
       <c r="AV146" s="0"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="164"/>
+      <c r="AY146" s="166"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
       <c r="D147" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
@@ -16320,13 +16161,13 @@
       <c r="AU147" s="19"/>
       <c r="AV147" s="0"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="164"/>
+      <c r="AY147" s="166"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="0"/>
       <c r="D148" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
@@ -16361,26 +16202,24 @@
       <c r="AU148" s="19"/>
       <c r="AV148" s="0"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="165"/>
-      <c r="AZ148" s="165"/>
-      <c r="BA148" s="165"/>
-      <c r="BB148" s="165"/>
-      <c r="BC148" s="165"/>
-      <c r="BD148" s="165"/>
-      <c r="BE148" s="165"/>
-      <c r="BF148" s="165"/>
-      <c r="BG148" s="165"/>
-      <c r="BH148" s="165"/>
-      <c r="BI148" s="165"/>
-      <c r="BJ148" s="165"/>
+      <c r="AY148" s="167"/>
+      <c r="AZ148" s="167"/>
+      <c r="BA148" s="167"/>
+      <c r="BB148" s="167"/>
+      <c r="BC148" s="167"/>
+      <c r="BD148" s="167"/>
+      <c r="BE148" s="167"/>
+      <c r="BF148" s="167"/>
+      <c r="BG148" s="167"/>
+      <c r="BH148" s="167"/>
+      <c r="BI148" s="167"/>
+      <c r="BJ148" s="167"/>
     </row>
     <row r="149" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="0"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
@@ -16460,7 +16299,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="19"/>
       <c r="E150" s="0"/>
-      <c r="F150" s="99"/>
+      <c r="F150" s="101"/>
       <c r="AW150" s="20"/>
       <c r="AKS150" s="0"/>
       <c r="AKT150" s="0"/>
@@ -16513,7 +16352,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="19"/>
       <c r="E151" s="0"/>
-      <c r="F151" s="99"/>
+      <c r="F151" s="101"/>
       <c r="AW151" s="20"/>
       <c r="AKS151" s="0"/>
       <c r="AKT151" s="0"/>
@@ -16566,7 +16405,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="19"/>
       <c r="E152" s="0"/>
-      <c r="F152" s="99"/>
+      <c r="F152" s="101"/>
       <c r="AW152" s="20"/>
       <c r="AKS152" s="0"/>
       <c r="AKT152" s="0"/>
@@ -16619,7 +16458,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="19"/>
       <c r="E153" s="0"/>
-      <c r="F153" s="99"/>
+      <c r="F153" s="101"/>
       <c r="AW153" s="20"/>
       <c r="AKS153" s="0"/>
       <c r="AKT153" s="0"/>
@@ -16672,7 +16511,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="19"/>
       <c r="E154" s="0"/>
-      <c r="F154" s="99"/>
+      <c r="F154" s="101"/>
       <c r="AW154" s="20"/>
       <c r="AKS154" s="0"/>
       <c r="AKT154" s="0"/>
@@ -16725,7 +16564,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="19"/>
       <c r="E155" s="0"/>
-      <c r="F155" s="99"/>
+      <c r="F155" s="101"/>
       <c r="AW155" s="20"/>
       <c r="AKS155" s="0"/>
       <c r="AKT155" s="0"/>
@@ -16778,7 +16617,7 @@
       <c r="C156" s="9"/>
       <c r="D156" s="19"/>
       <c r="E156" s="0"/>
-      <c r="F156" s="99"/>
+      <c r="F156" s="101"/>
       <c r="AW156" s="20"/>
       <c r="AKS156" s="0"/>
       <c r="AKT156" s="0"/>
@@ -16831,7 +16670,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="19"/>
       <c r="E157" s="0"/>
-      <c r="F157" s="99"/>
+      <c r="F157" s="101"/>
       <c r="AW157" s="20"/>
       <c r="AKS157" s="0"/>
       <c r="AKT157" s="0"/>
@@ -16884,7 +16723,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="19"/>
       <c r="E158" s="0"/>
-      <c r="F158" s="99"/>
+      <c r="F158" s="101"/>
       <c r="AW158" s="20"/>
       <c r="AKS158" s="0"/>
       <c r="AKT158" s="0"/>
@@ -16937,7 +16776,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="19"/>
       <c r="E159" s="0"/>
-      <c r="F159" s="99"/>
+      <c r="F159" s="101"/>
       <c r="AW159" s="20"/>
       <c r="AKS159" s="0"/>
       <c r="AKT159" s="0"/>
@@ -16990,7 +16829,7 @@
       <c r="C160" s="9"/>
       <c r="D160" s="19"/>
       <c r="E160" s="0"/>
-      <c r="F160" s="99"/>
+      <c r="F160" s="101"/>
       <c r="AW160" s="20"/>
       <c r="AKS160" s="0"/>
       <c r="AKT160" s="0"/>
@@ -17043,7 +16882,7 @@
       <c r="C161" s="9"/>
       <c r="D161" s="19"/>
       <c r="E161" s="0"/>
-      <c r="F161" s="99"/>
+      <c r="F161" s="101"/>
       <c r="AW161" s="20"/>
       <c r="AKS161" s="0"/>
       <c r="AKT161" s="0"/>
@@ -17094,9 +16933,9 @@
       <c r="A162" s="17"/>
       <c r="B162" s="0"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="166"/>
+      <c r="D162" s="168"/>
       <c r="E162" s="0"/>
-      <c r="F162" s="99"/>
+      <c r="F162" s="101"/>
       <c r="AW162" s="20"/>
       <c r="AKS162" s="0"/>
       <c r="AKT162" s="0"/>
@@ -17147,9 +16986,9 @@
       <c r="A163" s="17"/>
       <c r="B163" s="0"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="166"/>
+      <c r="D163" s="168"/>
       <c r="E163" s="0"/>
-      <c r="F163" s="99"/>
+      <c r="F163" s="101"/>
       <c r="AW163" s="20"/>
       <c r="AKS163" s="0"/>
       <c r="AKT163" s="0"/>
@@ -17200,9 +17039,9 @@
       <c r="A164" s="17"/>
       <c r="B164" s="0"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="166"/>
+      <c r="D164" s="168"/>
       <c r="E164" s="0"/>
-      <c r="F164" s="99"/>
+      <c r="F164" s="101"/>
       <c r="AW164" s="20"/>
       <c r="AKS164" s="0"/>
       <c r="AKT164" s="0"/>
@@ -17253,9 +17092,9 @@
       <c r="A165" s="17"/>
       <c r="B165" s="0"/>
       <c r="C165" s="9"/>
-      <c r="D165" s="166"/>
+      <c r="D165" s="168"/>
       <c r="E165" s="0"/>
-      <c r="F165" s="99"/>
+      <c r="F165" s="101"/>
       <c r="AW165" s="20"/>
       <c r="AKS165" s="0"/>
       <c r="AKT165" s="0"/>
@@ -17306,9 +17145,9 @@
       <c r="A166" s="17"/>
       <c r="B166" s="0"/>
       <c r="C166" s="9"/>
-      <c r="D166" s="166"/>
+      <c r="D166" s="168"/>
       <c r="E166" s="0"/>
-      <c r="F166" s="99"/>
+      <c r="F166" s="101"/>
       <c r="AW166" s="20"/>
       <c r="AKS166" s="0"/>
       <c r="AKT166" s="0"/>
@@ -17359,9 +17198,9 @@
       <c r="A167" s="17"/>
       <c r="B167" s="0"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="166"/>
+      <c r="D167" s="168"/>
       <c r="E167" s="0"/>
-      <c r="F167" s="99"/>
+      <c r="F167" s="101"/>
       <c r="AW167" s="20"/>
       <c r="AKS167" s="0"/>
       <c r="AKT167" s="0"/>
@@ -17512,7 +17351,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="25"/>
-      <c r="B170" s="167"/>
+      <c r="B170" s="169"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
@@ -17578,7 +17417,7 @@
       <c r="E172" s="9"/>
       <c r="AV172" s="9"/>
       <c r="AW172" s="9"/>
-      <c r="AX172" s="99"/>
+      <c r="AX172" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="103">
